--- a/uniaxial-loading-unloading/time_strain_stress/0d01_2d0.xlsx
+++ b/uniaxial-loading-unloading/time_strain_stress/0d01_2d0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C357"/>
+  <dimension ref="A1:C355"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -91,3918 +91,3896 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0004</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.88636363636363646</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0049999999999999</v>
+        <v>1.0062</v>
       </c>
       <c r="C3" s="0">
-        <v>1.2906137900746593</v>
+        <v>1.5316454134101196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B4" s="0">
-        <v>1.01</v>
+        <v>1.0112000000000001</v>
       </c>
       <c r="C4" s="0">
-        <v>2.2150712340799292</v>
+        <v>2.4185767174002466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.5</v>
+        <v>1.6200000000000001</v>
       </c>
       <c r="B5" s="0">
-        <v>1.0149999999999999</v>
+        <v>1.0162</v>
       </c>
       <c r="C5" s="0">
-        <v>3.0292015810276669</v>
+        <v>3.2076890168654884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>2.1200000000000001</v>
       </c>
       <c r="B6" s="0">
-        <v>1.02</v>
+        <v>1.0212000000000001</v>
       </c>
       <c r="C6" s="0">
-        <v>3.7459984189723308</v>
+        <v>3.9183965446318392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.5</v>
+        <v>2.6200000000000001</v>
       </c>
       <c r="B7" s="0">
-        <v>1.0249999999999999</v>
+        <v>1.0262</v>
       </c>
       <c r="C7" s="0">
-        <v>4.4394241545893696</v>
+        <v>4.5978790621143579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>3.1200000000000001</v>
       </c>
       <c r="B8" s="0">
-        <v>1.03</v>
+        <v>1.0311999999999999</v>
       </c>
       <c r="C8" s="0">
-        <v>5.0769923583662706</v>
+        <v>5.216558617852737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.5</v>
+        <v>3.6200000000000001</v>
       </c>
       <c r="B9" s="0">
-        <v>1.0349999999999999</v>
+        <v>1.0362</v>
       </c>
       <c r="C9" s="0">
-        <v>5.6810545454545451</v>
+        <v>5.8203241464417932</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4</v>
+        <v>4.1200000000000001</v>
       </c>
       <c r="B10" s="0">
-        <v>1.04</v>
+        <v>1.0411999999999999</v>
       </c>
       <c r="C10" s="0">
-        <v>6.2600073781291172</v>
+        <v>6.388727272727273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.5</v>
+        <v>4.6200000000000001</v>
       </c>
       <c r="B11" s="0">
-        <v>1.0449999999999999</v>
+        <v>1.0462</v>
       </c>
       <c r="C11" s="0">
-        <v>6.8129043478260858</v>
+        <v>6.9430431921020164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>5</v>
+        <v>5.1200000000000001</v>
       </c>
       <c r="B12" s="0">
-        <v>1.05</v>
+        <v>1.0511999999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>7.3556883618796647</v>
+        <v>7.4682056766762646</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.5</v>
+        <v>5.6200000000000001</v>
       </c>
       <c r="B13" s="0">
-        <v>1.0549999999999999</v>
+        <v>1.0562</v>
       </c>
       <c r="C13" s="0">
-        <v>7.8772621870882729</v>
+        <v>7.9915220074043614</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>6</v>
+        <v>6.1200000000000001</v>
       </c>
       <c r="B14" s="0">
-        <v>1.0600000000000001</v>
+        <v>1.0611999999999999</v>
       </c>
       <c r="C14" s="0">
-        <v>8.3676122968818607</v>
+        <v>8.4895960510078154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.5</v>
+        <v>6.6200000000000001</v>
       </c>
       <c r="B15" s="0">
-        <v>1.0649999999999999</v>
+        <v>1.0662</v>
       </c>
       <c r="C15" s="0">
-        <v>8.8529971014492741</v>
+        <v>8.965120526532294</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>7.1200000000000001</v>
       </c>
       <c r="B16" s="0">
-        <v>1.0700000000000001</v>
+        <v>1.0711999999999999</v>
       </c>
       <c r="C16" s="0">
-        <v>9.3295552042160708</v>
+        <v>9.4360008227067063</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7.5</v>
+        <v>7.6200000000000001</v>
       </c>
       <c r="B17" s="0">
-        <v>1.075</v>
+        <v>1.0762</v>
       </c>
       <c r="C17" s="0">
-        <v>9.7852263504611319</v>
+        <v>9.8976330728095459</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="B18" s="0">
-        <v>1.0800000000000001</v>
+        <v>1.0811999999999999</v>
       </c>
       <c r="C18" s="0">
-        <v>10.225515151515149</v>
+        <v>10.329262854792269</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.5</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="B19" s="0">
-        <v>1.085</v>
+        <v>1.0862000000000001</v>
       </c>
       <c r="C19" s="0">
-        <v>10.650688801054013</v>
+        <v>10.758945290004114</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="B20" s="0">
-        <v>1.0900000000000001</v>
+        <v>1.0911999999999999</v>
       </c>
       <c r="C20" s="0">
-        <v>11.083638998682476</v>
+        <v>11.189782805429862</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.5</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="B21" s="0">
-        <v>1.095</v>
+        <v>1.0962000000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>11.483074923144486</v>
+        <v>11.578515014397372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="B22" s="0">
-        <v>1.1000000000000001</v>
+        <v>1.1012</v>
       </c>
       <c r="C22" s="0">
-        <v>11.899516205533596</v>
+        <v>11.991174002468123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.5</v>
+        <v>10.619999999999999</v>
       </c>
       <c r="B23" s="0">
-        <v>1.105</v>
+        <v>1.1062000000000001</v>
       </c>
       <c r="C23" s="0">
-        <v>12.294942643829598</v>
+        <v>12.385548334018921</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>11.119999999999999</v>
       </c>
       <c r="B24" s="0">
-        <v>1.1100000000000001</v>
+        <v>1.1112</v>
       </c>
       <c r="C24" s="0">
-        <v>12.680269828722</v>
+        <v>12.765979432332376</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>11.5</v>
+        <v>11.619999999999999</v>
       </c>
       <c r="B25" s="0">
-        <v>1.115</v>
+        <v>1.1162000000000001</v>
       </c>
       <c r="C25" s="0">
-        <v>13.047785331576634</v>
+        <v>13.122217194570137</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>12</v>
+        <v>12.119999999999999</v>
       </c>
       <c r="B26" s="0">
-        <v>1.1200000000000001</v>
+        <v>1.1212</v>
       </c>
       <c r="C26" s="0">
-        <v>13.418451119894597</v>
+        <v>13.507195392842453</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>12.5</v>
+        <v>12.619999999999999</v>
       </c>
       <c r="B27" s="0">
-        <v>1.125</v>
+        <v>1.1262000000000001</v>
       </c>
       <c r="C27" s="0">
-        <v>13.776082037768994</v>
+        <v>13.869596873714523</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>13</v>
+        <v>13.119999999999999</v>
       </c>
       <c r="B28" s="0">
-        <v>1.1299999999999999</v>
+        <v>1.1312</v>
       </c>
       <c r="C28" s="0">
-        <v>14.127798858146683</v>
+        <v>14.216612916495274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>13.5</v>
+        <v>13.619999999999999</v>
       </c>
       <c r="B29" s="0">
-        <v>1.135</v>
+        <v>1.1362000000000001</v>
       </c>
       <c r="C29" s="0">
-        <v>14.481396574440048</v>
+        <v>14.566519127930894</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>14</v>
+        <v>14.119999999999999</v>
       </c>
       <c r="B30" s="0">
-        <v>1.1400000000000001</v>
+        <v>1.1412</v>
       </c>
       <c r="C30" s="0">
-        <v>14.827605094422481</v>
+        <v>14.90433977786919</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>14.5</v>
+        <v>14.619999999999999</v>
       </c>
       <c r="B31" s="0">
-        <v>1.145</v>
+        <v>1.1461999999999999</v>
       </c>
       <c r="C31" s="0">
-        <v>15.153167852437416</v>
+        <v>15.223042369395314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>15</v>
+        <v>15.119999999999999</v>
       </c>
       <c r="B32" s="0">
-        <v>1.1499999999999999</v>
+        <v>1.1512</v>
       </c>
       <c r="C32" s="0">
-        <v>15.487609661835746</v>
+        <v>15.56195639654463</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15.5</v>
+        <v>15.619999999999999</v>
       </c>
       <c r="B33" s="0">
-        <v>1.155</v>
+        <v>1.1562000000000001</v>
       </c>
       <c r="C33" s="0">
-        <v>15.799929205094418</v>
+        <v>15.879814068284661</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>16</v>
+        <v>16.120000000000001</v>
       </c>
       <c r="B34" s="0">
-        <v>1.1599999999999999</v>
+        <v>1.1612</v>
       </c>
       <c r="C34" s="0">
-        <v>16.107463153271844</v>
+        <v>16.191323735088446</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>16.5</v>
+        <v>16.620000000000001</v>
       </c>
       <c r="B35" s="0">
-        <v>1.165</v>
+        <v>1.1661999999999999</v>
       </c>
       <c r="C35" s="0">
-        <v>16.423157663592441</v>
+        <v>16.499867544220489</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>17</v>
+        <v>17.120000000000001</v>
       </c>
       <c r="B36" s="0">
-        <v>1.1699999999999999</v>
+        <v>1.1712</v>
       </c>
       <c r="C36" s="0">
-        <v>16.730396662274924</v>
+        <v>16.803986013986016</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>17.5</v>
+        <v>17.620000000000001</v>
       </c>
       <c r="B37" s="0">
-        <v>1.175</v>
+        <v>1.1762000000000001</v>
       </c>
       <c r="C37" s="0">
-        <v>17.035122002635042</v>
+        <v>17.102197449609218</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>18</v>
+        <v>18.120000000000001</v>
       </c>
       <c r="B38" s="0">
-        <v>1.1799999999999999</v>
+        <v>1.1812</v>
       </c>
       <c r="C38" s="0">
-        <v>17.320043390425997</v>
+        <v>17.379609214315099</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>18.5</v>
+        <v>18.620000000000001</v>
       </c>
       <c r="B39" s="0">
-        <v>1.1850000000000001</v>
+        <v>1.1861999999999999</v>
       </c>
       <c r="C39" s="0">
-        <v>17.602635046113303</v>
+        <v>17.669181406828468</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>19</v>
+        <v>19.120000000000001</v>
       </c>
       <c r="B40" s="0">
-        <v>1.1899999999999999</v>
+        <v>1.1912</v>
       </c>
       <c r="C40" s="0">
-        <v>17.889427140974963</v>
+        <v>17.957332784862199</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>19.5</v>
+        <v>19.620000000000001</v>
       </c>
       <c r="B41" s="0">
-        <v>1.1950000000000001</v>
+        <v>1.1961999999999999</v>
       </c>
       <c r="C41" s="0">
-        <v>18.166542116820374</v>
+        <v>18.234294529000415</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>20</v>
+        <v>20.120000000000001</v>
       </c>
       <c r="B42" s="0">
-        <v>1.2</v>
+        <v>1.2012</v>
       </c>
       <c r="C42" s="0">
-        <v>18.444628722002633</v>
+        <v>18.508503496503497</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>20.5</v>
+        <v>20.620000000000001</v>
       </c>
       <c r="B43" s="0">
-        <v>1.2050000000000001</v>
+        <v>1.2061999999999999</v>
       </c>
       <c r="C43" s="0">
-        <v>18.711438032498897</v>
+        <v>18.774499382969974</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>21</v>
+        <v>21.120000000000001</v>
       </c>
       <c r="B44" s="0">
-        <v>1.21</v>
+        <v>1.2112000000000001</v>
       </c>
       <c r="C44" s="0">
-        <v>18.976080808080802</v>
+        <v>19.039535170711645</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>21.5</v>
+        <v>21.620000000000001</v>
       </c>
       <c r="B45" s="0">
-        <v>1.2150000000000001</v>
+        <v>1.2161999999999999</v>
       </c>
       <c r="C45" s="0">
-        <v>19.230852349582779</v>
+        <v>19.292967503085155</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>22</v>
+        <v>22.120000000000001</v>
       </c>
       <c r="B46" s="0">
-        <v>1.22</v>
+        <v>1.2212000000000001</v>
       </c>
       <c r="C46" s="0">
-        <v>19.487339481774267</v>
+        <v>19.555535993418349</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>22.5</v>
+        <v>22.620000000000001</v>
       </c>
       <c r="B47" s="0">
-        <v>1.2250000000000001</v>
+        <v>1.2262</v>
       </c>
       <c r="C47" s="0">
-        <v>19.739081247255154</v>
+        <v>19.802045248868776</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>23</v>
+        <v>23.120000000000001</v>
       </c>
       <c r="B48" s="0">
-        <v>1.23</v>
+        <v>1.2312000000000001</v>
       </c>
       <c r="C48" s="0">
-        <v>19.984302678963548</v>
+        <v>20.051559851912796</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>23.5</v>
+        <v>23.620000000000001</v>
       </c>
       <c r="B49" s="0">
-        <v>1.2350000000000001</v>
+        <v>1.2362</v>
       </c>
       <c r="C49" s="0">
-        <v>20.22970979358805</v>
+        <v>20.291127930892639</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>24</v>
+        <v>24.120000000000001</v>
       </c>
       <c r="B50" s="0">
-        <v>1.24</v>
+        <v>1.2412000000000001</v>
       </c>
       <c r="C50" s="0">
-        <v>20.464031269213873</v>
+        <v>20.519696421225838</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>24.5</v>
+        <v>24.620000000000001</v>
       </c>
       <c r="B51" s="0">
-        <v>1.2450000000000001</v>
+        <v>1.2462</v>
       </c>
       <c r="C51" s="0">
-        <v>20.70960158102767</v>
+        <v>20.765238996297821</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>25</v>
+        <v>25.120000000000001</v>
       </c>
       <c r="B52" s="0">
-        <v>1.25</v>
+        <v>1.2512000000000001</v>
       </c>
       <c r="C52" s="0">
-        <v>20.943132542819495</v>
+        <v>20.998158782394079</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>25.5</v>
+        <v>25.620000000000001</v>
       </c>
       <c r="B53" s="0">
-        <v>1.2549999999999999</v>
+        <v>1.2562</v>
       </c>
       <c r="C53" s="0">
-        <v>21.17097075098814</v>
+        <v>21.227038255861789</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>26</v>
+        <v>26.120000000000001</v>
       </c>
       <c r="B54" s="0">
-        <v>1.26</v>
+        <v>1.2612000000000001</v>
       </c>
       <c r="C54" s="0">
-        <v>21.398584101888442</v>
+        <v>21.451005347593586</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>26.5</v>
+        <v>26.620000000000001</v>
       </c>
       <c r="B55" s="0">
-        <v>1.2650000000000001</v>
+        <v>1.2662</v>
       </c>
       <c r="C55" s="0">
-        <v>21.623095125164689</v>
+        <v>21.673583710407243</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>27</v>
+        <v>27.120000000000001</v>
       </c>
       <c r="B56" s="0">
-        <v>1.27</v>
+        <v>1.2711999999999999</v>
       </c>
       <c r="C56" s="0">
-        <v>21.844425296442683</v>
+        <v>21.897172357054711</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>27.5</v>
+        <v>27.620000000000001</v>
       </c>
       <c r="B57" s="0">
-        <v>1.2749999999999999</v>
+        <v>1.2762</v>
       </c>
       <c r="C57" s="0">
-        <v>22.058352569169958</v>
+        <v>22.106092143150974</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>28</v>
+        <v>28.120000000000001</v>
       </c>
       <c r="B58" s="0">
-        <v>1.28</v>
+        <v>1.2812000000000001</v>
       </c>
       <c r="C58" s="0">
-        <v>22.283031005709262</v>
+        <v>22.344324146441796</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>28.5</v>
+        <v>28.620000000000001</v>
       </c>
       <c r="B59" s="0">
-        <v>1.2850000000000001</v>
+        <v>1.2862</v>
       </c>
       <c r="C59" s="0">
-        <v>22.4888751866491</v>
+        <v>22.548162073220901</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>29</v>
+        <v>29.120000000000001</v>
       </c>
       <c r="B60" s="0">
-        <v>1.29</v>
+        <v>1.2911999999999999</v>
       </c>
       <c r="C60" s="0">
-        <v>22.701347913921825</v>
+        <v>22.758429452900042</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>29.5</v>
+        <v>29.620000000000001</v>
       </c>
       <c r="B61" s="0">
-        <v>1.2949999999999999</v>
+        <v>1.2962</v>
       </c>
       <c r="C61" s="0">
-        <v>22.902337988581465</v>
+        <v>22.947141916906624</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>30</v>
+        <v>30.120000000000001</v>
       </c>
       <c r="B62" s="0">
-        <v>1.3</v>
+        <v>1.3012000000000001</v>
       </c>
       <c r="C62" s="0">
-        <v>23.109355292050939</v>
+        <v>23.156078157136992</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>30.5</v>
+        <v>30.620000000000001</v>
       </c>
       <c r="B63" s="0">
-        <v>1.3049999999999999</v>
+        <v>1.3062</v>
       </c>
       <c r="C63" s="0">
-        <v>23.306533333333334</v>
+        <v>23.356831756478815</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>31</v>
+        <v>31.120000000000001</v>
       </c>
       <c r="B64" s="0">
-        <v>1.3100000000000001</v>
+        <v>1.3111999999999999</v>
       </c>
       <c r="C64" s="0">
-        <v>23.509231796223098</v>
+        <v>23.558286301933364</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>31.5</v>
+        <v>31.620000000000001</v>
       </c>
       <c r="B65" s="0">
-        <v>1.3149999999999999</v>
+        <v>1.3162</v>
       </c>
       <c r="C65" s="0">
-        <v>23.704487834870438</v>
+        <v>23.75000082270671</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>32</v>
+        <v>32.119999999999997</v>
       </c>
       <c r="B66" s="0">
-        <v>1.3200000000000001</v>
+        <v>1.3211999999999999</v>
       </c>
       <c r="C66" s="0">
-        <v>23.898292138779091</v>
+        <v>23.950771698889341</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>32.5</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="B67" s="0">
-        <v>1.325</v>
+        <v>1.3262</v>
       </c>
       <c r="C67" s="0">
-        <v>24.093319104084319</v>
+        <v>24.13238091320445</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>33</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="B68" s="0">
-        <v>1.3300000000000001</v>
+        <v>1.3311999999999999</v>
       </c>
       <c r="C68" s="0">
-        <v>24.274334299516905</v>
+        <v>24.323209378856436</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>33.5</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="B69" s="0">
-        <v>1.335</v>
+        <v>1.3362000000000001</v>
       </c>
       <c r="C69" s="0">
-        <v>24.464209398331128</v>
+        <v>24.503456190867958</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>34</v>
+        <v>34.119999999999997</v>
       </c>
       <c r="B70" s="0">
-        <v>1.3400000000000001</v>
+        <v>1.3411999999999999</v>
       </c>
       <c r="C70" s="0">
-        <v>24.64238524374176</v>
+        <v>24.685536816125055</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>34.5</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="B71" s="0">
-        <v>1.345</v>
+        <v>1.3462000000000001</v>
       </c>
       <c r="C71" s="0">
-        <v>24.824381379007455</v>
+        <v>24.875812422871256</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>35</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="B72" s="0">
-        <v>1.3500000000000001</v>
+        <v>1.3512</v>
       </c>
       <c r="C72" s="0">
-        <v>25.004627667984192</v>
+        <v>25.043571369806667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>35.5</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="B73" s="0">
-        <v>1.355</v>
+        <v>1.3561999999999999</v>
       </c>
       <c r="C73" s="0">
-        <v>25.177269038208159</v>
+        <v>25.218777457836286</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>36</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="B74" s="0">
-        <v>1.3599999999999999</v>
+        <v>1.3612</v>
       </c>
       <c r="C74" s="0">
-        <v>25.346635397452786</v>
+        <v>25.395842863019336</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>36.5</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="B75" s="0">
-        <v>1.365</v>
+        <v>1.3662000000000001</v>
       </c>
       <c r="C75" s="0">
-        <v>25.530593763724188</v>
+        <v>25.576002468120119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>37</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="B76" s="0">
-        <v>1.3700000000000001</v>
+        <v>1.3712</v>
       </c>
       <c r="C76" s="0">
-        <v>25.698593939393934</v>
+        <v>25.740191690662282</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>37.5</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="B77" s="0">
-        <v>1.375</v>
+        <v>1.3761999999999999</v>
       </c>
       <c r="C77" s="0">
-        <v>25.863786912604294</v>
+        <v>25.905893048128348</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>38</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="B78" s="0">
-        <v>1.3799999999999999</v>
+        <v>1.3812</v>
       </c>
       <c r="C78" s="0">
-        <v>26.028287571365823</v>
+        <v>26.064668860551219</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>38.5</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="B79" s="0">
-        <v>1.385</v>
+        <v>1.3862000000000001</v>
       </c>
       <c r="C79" s="0">
-        <v>26.201232850241542</v>
+        <v>26.239248046071573</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>39</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="B80" s="0">
-        <v>1.3900000000000001</v>
+        <v>1.3912</v>
       </c>
       <c r="C80" s="0">
-        <v>26.354837066315326</v>
+        <v>26.391179761415064</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>39.5</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="B81" s="0">
-        <v>1.395</v>
+        <v>1.3961999999999999</v>
       </c>
       <c r="C81" s="0">
-        <v>26.516239964866049</v>
+        <v>26.545580419580425</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>40</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="B82" s="0">
-        <v>1.3999999999999999</v>
+        <v>1.4012</v>
       </c>
       <c r="C82" s="0">
-        <v>26.672752393500218</v>
+        <v>26.717204442616204</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>40.5</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="B83" s="0">
-        <v>1.405</v>
+        <v>1.4062000000000001</v>
       </c>
       <c r="C83" s="0">
-        <v>26.831973649538867</v>
+        <v>26.869141094199922</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>41</v>
+        <v>41.119999999999997</v>
       </c>
       <c r="B84" s="0">
-        <v>1.4100000000000001</v>
+        <v>1.4112</v>
       </c>
       <c r="C84" s="0">
-        <v>26.988707949055776</v>
+        <v>27.024019744960928</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>41.5</v>
+        <v>41.619999999999997</v>
       </c>
       <c r="B85" s="0">
-        <v>1.415</v>
+        <v>1.4161999999999999</v>
       </c>
       <c r="C85" s="0">
-        <v>27.138511198945977</v>
+        <v>27.181514603044022</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>42</v>
+        <v>42.119999999999997</v>
       </c>
       <c r="B86" s="0">
-        <v>1.4199999999999999</v>
+        <v>1.4212</v>
       </c>
       <c r="C86" s="0">
-        <v>27.298392797540618</v>
+        <v>27.333758124228712</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>42.5</v>
+        <v>42.619999999999997</v>
       </c>
       <c r="B87" s="0">
-        <v>1.425</v>
+        <v>1.4261999999999999</v>
       </c>
       <c r="C87" s="0">
-        <v>27.448557751427316</v>
+        <v>27.479189633895515</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>43</v>
+        <v>43.119999999999997</v>
       </c>
       <c r="B88" s="0">
-        <v>1.4299999999999999</v>
+        <v>1.4312</v>
       </c>
       <c r="C88" s="0">
-        <v>27.593564339042597</v>
+        <v>27.628365281777043</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>43.5</v>
+        <v>43.619999999999997</v>
       </c>
       <c r="B89" s="0">
-        <v>1.4350000000000001</v>
+        <v>1.4361999999999999</v>
       </c>
       <c r="C89" s="0">
-        <v>27.746320948616596</v>
+        <v>27.774158782394085</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>44</v>
+        <v>44.119999999999997</v>
       </c>
       <c r="B90" s="0">
-        <v>1.4399999999999999</v>
+        <v>1.4412</v>
       </c>
       <c r="C90" s="0">
-        <v>27.880371892841453</v>
+        <v>27.914029617441383</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>44.5</v>
+        <v>44.619999999999997</v>
       </c>
       <c r="B91" s="0">
-        <v>1.4450000000000001</v>
+        <v>1.4461999999999999</v>
       </c>
       <c r="C91" s="0">
-        <v>28.029855950812465</v>
+        <v>28.069548334018926</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>45</v>
+        <v>45.119999999999997</v>
       </c>
       <c r="B92" s="0">
-        <v>1.45</v>
+        <v>1.4512</v>
       </c>
       <c r="C92" s="0">
-        <v>28.171698726394371</v>
+        <v>28.209216783216785</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>45.5</v>
+        <v>45.619999999999997</v>
       </c>
       <c r="B93" s="0">
-        <v>1.4550000000000001</v>
+        <v>1.4561999999999999</v>
       </c>
       <c r="C93" s="0">
-        <v>28.316172332015807</v>
+        <v>28.346134923899633</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>46</v>
+        <v>46.119999999999997</v>
       </c>
       <c r="B94" s="0">
-        <v>1.46</v>
+        <v>1.4612000000000001</v>
       </c>
       <c r="C94" s="0">
-        <v>28.461244268774696</v>
+        <v>28.490445084327444</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>46.5</v>
+        <v>46.619999999999997</v>
       </c>
       <c r="B95" s="0">
-        <v>1.4650000000000001</v>
+        <v>1.4661999999999999</v>
       </c>
       <c r="C95" s="0">
-        <v>28.593998418972326</v>
+        <v>28.626754422048538</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>47</v>
+        <v>47.119999999999997</v>
       </c>
       <c r="B96" s="0">
-        <v>1.47</v>
+        <v>1.4712000000000001</v>
       </c>
       <c r="C96" s="0">
-        <v>28.72745261308739</v>
+        <v>28.768493624023037</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>47.5</v>
+        <v>47.619999999999997</v>
       </c>
       <c r="B97" s="0">
-        <v>1.4750000000000001</v>
+        <v>1.4762</v>
       </c>
       <c r="C97" s="0">
-        <v>28.862081862099245</v>
+        <v>28.885653640477173</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48</v>
+        <v>48.119999999999997</v>
       </c>
       <c r="B98" s="0">
-        <v>1.48</v>
+        <v>1.4811999999999999</v>
       </c>
       <c r="C98" s="0">
-        <v>29.003377075098811</v>
+        <v>29.03361415055533</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.5</v>
+        <v>48.619999999999997</v>
       </c>
       <c r="B99" s="0">
-        <v>1.4849999999999999</v>
+        <v>1.4862</v>
       </c>
       <c r="C99" s="0">
-        <v>29.133220553359671</v>
+        <v>29.166688605512139</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>49</v>
+        <v>49.119999999999997</v>
       </c>
       <c r="B100" s="0">
-        <v>1.49</v>
+        <v>1.4912000000000001</v>
       </c>
       <c r="C100" s="0">
-        <v>29.261247957839252</v>
+        <v>29.291320444261626</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>49.5</v>
+        <v>49.619999999999997</v>
       </c>
       <c r="B101" s="0">
-        <v>1.4950000000000001</v>
+        <v>1.4962</v>
       </c>
       <c r="C101" s="0">
-        <v>29.388385770750983</v>
+        <v>29.421250514191698</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>50</v>
+        <v>50.119999999999997</v>
       </c>
       <c r="B102" s="0">
-        <v>1.5</v>
+        <v>1.5011999999999999</v>
       </c>
       <c r="C102" s="0">
-        <v>29.522743083003952</v>
+        <v>29.558013986013986</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>50.5</v>
+        <v>50.619999999999997</v>
       </c>
       <c r="B103" s="0">
-        <v>1.5049999999999999</v>
+        <v>1.5062</v>
       </c>
       <c r="C103" s="0">
-        <v>29.642796135265694</v>
+        <v>29.679815713698076</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>51</v>
+        <v>51.119999999999997</v>
       </c>
       <c r="B104" s="0">
-        <v>1.51</v>
+        <v>1.5112000000000001</v>
       </c>
       <c r="C104" s="0">
-        <v>29.762329732103634</v>
+        <v>29.795457013574666</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>51.5</v>
+        <v>51.619999999999997</v>
       </c>
       <c r="B105" s="0">
-        <v>1.5150000000000001</v>
+        <v>1.5162</v>
       </c>
       <c r="C105" s="0">
-        <v>29.894583574879221</v>
+        <v>29.923178938708354</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>52</v>
+        <v>52.119999999999997</v>
       </c>
       <c r="B106" s="0">
-        <v>1.52</v>
+        <v>1.5211999999999999</v>
       </c>
       <c r="C106" s="0">
-        <v>30.027653403601221</v>
+        <v>30.051329494035379</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>52.5</v>
+        <v>52.619999999999997</v>
       </c>
       <c r="B107" s="0">
-        <v>1.5249999999999999</v>
+        <v>1.5262</v>
       </c>
       <c r="C107" s="0">
-        <v>30.146148792270523</v>
+        <v>30.177452900041146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>53</v>
+        <v>53.119999999999997</v>
       </c>
       <c r="B108" s="0">
-        <v>1.53</v>
+        <v>1.5312000000000001</v>
       </c>
       <c r="C108" s="0">
-        <v>30.264677733860339</v>
+        <v>30.293010283833812</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>53.5</v>
+        <v>53.619999999999997</v>
       </c>
       <c r="B109" s="0">
-        <v>1.5350000000000001</v>
+        <v>1.5362</v>
       </c>
       <c r="C109" s="0">
-        <v>30.39231216512955</v>
+        <v>30.422399835458659</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>54</v>
+        <v>54.119999999999997</v>
       </c>
       <c r="B110" s="0">
-        <v>1.54</v>
+        <v>1.5411999999999999</v>
       </c>
       <c r="C110" s="0">
-        <v>30.505836451471225</v>
+        <v>30.534164541341017</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>54.5</v>
+        <v>54.619999999999997</v>
       </c>
       <c r="B111" s="0">
-        <v>1.5449999999999999</v>
+        <v>1.5462</v>
       </c>
       <c r="C111" s="0">
-        <v>30.631492665788311</v>
+        <v>30.666928835870017</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>55</v>
+        <v>55.119999999999997</v>
       </c>
       <c r="B112" s="0">
-        <v>1.55</v>
+        <v>1.5512000000000001</v>
       </c>
       <c r="C112" s="0">
-        <v>30.747538691260424</v>
+        <v>30.764657342657344</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>55.5</v>
+        <v>55.619999999999997</v>
       </c>
       <c r="B113" s="0">
-        <v>1.5550000000000002</v>
+        <v>1.5562</v>
       </c>
       <c r="C113" s="0">
-        <v>30.861871058410181</v>
+        <v>30.894374331550804</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>56</v>
+        <v>56.119999999999997</v>
       </c>
       <c r="B114" s="0">
-        <v>1.5600000000000001</v>
+        <v>1.5611999999999999</v>
       </c>
       <c r="C114" s="0">
-        <v>30.978661923583658</v>
+        <v>31.009571369806668</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>56.5</v>
+        <v>56.619999999999997</v>
       </c>
       <c r="B115" s="0">
-        <v>1.5649999999999999</v>
+        <v>1.5662</v>
       </c>
       <c r="C115" s="0">
-        <v>31.085031005709254</v>
+        <v>31.11836281365693</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>57</v>
+        <v>57.119999999999997</v>
       </c>
       <c r="B116" s="0">
-        <v>1.5700000000000001</v>
+        <v>1.5712000000000002</v>
       </c>
       <c r="C116" s="0">
-        <v>31.207647430830033</v>
+        <v>31.244081447963801</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>57.5</v>
+        <v>57.619999999999997</v>
       </c>
       <c r="B117" s="0">
-        <v>1.5750000000000002</v>
+        <v>1.5762</v>
       </c>
       <c r="C117" s="0">
-        <v>31.317246728151066</v>
+        <v>31.337468531468531</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>58</v>
+        <v>58.119999999999997</v>
       </c>
       <c r="B118" s="0">
-        <v>1.5800000000000001</v>
+        <v>1.5811999999999999</v>
       </c>
       <c r="C118" s="0">
-        <v>31.431478612209037</v>
+        <v>31.458482106129164</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>58.5</v>
+        <v>58.619999999999997</v>
       </c>
       <c r="B119" s="0">
-        <v>1.585</v>
+        <v>1.5861999999999998</v>
       </c>
       <c r="C119" s="0">
-        <v>31.542817391304336</v>
+        <v>31.572227889757304</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>59</v>
+        <v>59.119999999999997</v>
       </c>
       <c r="B120" s="0">
-        <v>1.5899999999999999</v>
+        <v>1.5911999999999999</v>
       </c>
       <c r="C120" s="0">
-        <v>31.654009661835744</v>
+        <v>31.680826820238593</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>59.5</v>
+        <v>59.619999999999997</v>
       </c>
       <c r="B121" s="0">
-        <v>1.595</v>
+        <v>1.5962000000000001</v>
       </c>
       <c r="C121" s="0">
-        <v>31.758756609573993</v>
+        <v>31.785218428630198</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>60</v>
+        <v>60.119999999999997</v>
       </c>
       <c r="B122" s="0">
-        <v>1.6000000000000001</v>
+        <v>1.6012</v>
       </c>
       <c r="C122" s="0">
-        <v>31.865951163812031</v>
+        <v>31.900686960098735</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>60.5</v>
+        <v>60.619999999999997</v>
       </c>
       <c r="B123" s="0">
-        <v>1.605</v>
+        <v>1.6061999999999999</v>
       </c>
       <c r="C123" s="0">
-        <v>31.97096144049187</v>
+        <v>32.000549568078981</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>61</v>
+        <v>61.119999999999997</v>
       </c>
       <c r="B124" s="0">
-        <v>1.6099999999999999</v>
+        <v>1.6112</v>
       </c>
       <c r="C124" s="0">
-        <v>32.085679929732095</v>
+        <v>32.110799670917316</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>61.5</v>
+        <v>61.619999999999997</v>
       </c>
       <c r="B125" s="0">
-        <v>1.615</v>
+        <v>1.6162000000000001</v>
       </c>
       <c r="C125" s="0">
-        <v>32.186115063680276</v>
+        <v>32.213876593994236</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>62</v>
+        <v>62.119999999999997</v>
       </c>
       <c r="B126" s="0">
-        <v>1.6200000000000001</v>
+        <v>1.6212</v>
       </c>
       <c r="C126" s="0">
-        <v>32.284746947738242</v>
+        <v>32.315235705471004</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>62.5</v>
+        <v>62.619999999999997</v>
       </c>
       <c r="B127" s="0">
-        <v>1.625</v>
+        <v>1.6261999999999999</v>
       </c>
       <c r="C127" s="0">
-        <v>32.393690996925777</v>
+        <v>32.425535170711647</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>63</v>
+        <v>63.119999999999997</v>
       </c>
       <c r="B128" s="0">
-        <v>1.6299999999999999</v>
+        <v>1.6312</v>
       </c>
       <c r="C128" s="0">
-        <v>32.493471585419407</v>
+        <v>32.520247634718231</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>63.5</v>
+        <v>63.619999999999997</v>
       </c>
       <c r="B129" s="0">
-        <v>1.635</v>
+        <v>1.6362000000000001</v>
       </c>
       <c r="C129" s="0">
-        <v>32.587546245059279</v>
+        <v>32.610552036199103</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>64</v>
+        <v>64.120000000000005</v>
       </c>
       <c r="B130" s="0">
-        <v>1.6400000000000001</v>
+        <v>1.6412</v>
       </c>
       <c r="C130" s="0">
-        <v>32.691967852437422</v>
+        <v>32.707771287535991</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>64.5</v>
+        <v>64.620000000000005</v>
       </c>
       <c r="B131" s="0">
-        <v>1.645</v>
+        <v>1.6462000000000001</v>
       </c>
       <c r="C131" s="0">
-        <v>32.797429073342109</v>
+        <v>32.822868778280551</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>65</v>
+        <v>65.120000000000005</v>
       </c>
       <c r="B132" s="0">
-        <v>1.6499999999999999</v>
+        <v>1.6512000000000002</v>
       </c>
       <c r="C132" s="0">
-        <v>32.898846903820811</v>
+        <v>32.916566022213082</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>65.5</v>
+        <v>65.620000000000005</v>
       </c>
       <c r="B133" s="0">
-        <v>1.655</v>
+        <v>1.6562000000000001</v>
       </c>
       <c r="C133" s="0">
-        <v>32.990951602986378</v>
+        <v>33.018733031674216</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>66</v>
+        <v>66.120000000000005</v>
       </c>
       <c r="B134" s="0">
-        <v>1.6600000000000001</v>
+        <v>1.6612</v>
       </c>
       <c r="C134" s="0">
-        <v>33.095507773386032</v>
+        <v>33.114503496503495</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>66.5</v>
+        <v>66.620000000000005</v>
       </c>
       <c r="B135" s="0">
-        <v>1.665</v>
+        <v>1.6661999999999999</v>
       </c>
       <c r="C135" s="0">
-        <v>33.186517171717163</v>
+        <v>33.20359111476759</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>67</v>
+        <v>67.120000000000005</v>
       </c>
       <c r="B136" s="0">
-        <v>1.6699999999999999</v>
+        <v>1.6712</v>
       </c>
       <c r="C136" s="0">
-        <v>33.282606411945537</v>
+        <v>33.311935828877012</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>67.5</v>
+        <v>67.620000000000005</v>
       </c>
       <c r="B137" s="0">
-        <v>1.675</v>
+        <v>1.6762000000000001</v>
       </c>
       <c r="C137" s="0">
-        <v>33.376311638120328</v>
+        <v>33.402812834224612</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>68</v>
+        <v>68.120000000000005</v>
       </c>
       <c r="B138" s="0">
-        <v>1.6800000000000002</v>
+        <v>1.6812</v>
       </c>
       <c r="C138" s="0">
-        <v>33.474886956521736</v>
+        <v>33.503826408885232</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>68.5</v>
+        <v>68.620000000000005</v>
       </c>
       <c r="B139" s="0">
-        <v>1.6850000000000001</v>
+        <v>1.6861999999999999</v>
       </c>
       <c r="C139" s="0">
-        <v>33.567842424242421</v>
+        <v>33.591884821061292</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>69</v>
+        <v>69.120000000000005</v>
       </c>
       <c r="B140" s="0">
-        <v>1.6899999999999999</v>
+        <v>1.6912</v>
       </c>
       <c r="C140" s="0">
-        <v>33.654959859464199</v>
+        <v>33.678807075277668</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>69.5</v>
+        <v>69.620000000000005</v>
       </c>
       <c r="B141" s="0">
-        <v>1.6950000000000001</v>
+        <v>1.6962000000000002</v>
       </c>
       <c r="C141" s="0">
-        <v>33.747369345630212</v>
+        <v>33.774821883998356</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>70</v>
+        <v>70.120000000000005</v>
       </c>
       <c r="B142" s="0">
-        <v>1.7000000000000002</v>
+        <v>1.7012</v>
       </c>
       <c r="C142" s="0">
-        <v>33.84718225735616</v>
+        <v>33.871406005758949</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>70.5</v>
+        <v>70.620000000000005</v>
       </c>
       <c r="B143" s="0">
-        <v>1.7050000000000001</v>
+        <v>1.7061999999999999</v>
       </c>
       <c r="C143" s="0">
-        <v>33.945261835748781</v>
+        <v>33.965668449197864</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>71</v>
+        <v>71.120000000000005</v>
       </c>
       <c r="B144" s="0">
-        <v>1.71</v>
+        <v>1.7112000000000001</v>
       </c>
       <c r="C144" s="0">
-        <v>34.028633816425113</v>
+        <v>34.053709584533117</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>71.5</v>
+        <v>71.620000000000005</v>
       </c>
       <c r="B145" s="0">
-        <v>1.7149999999999999</v>
+        <v>1.7162000000000002</v>
       </c>
       <c r="C145" s="0">
-        <v>34.117470531400954</v>
+        <v>34.134654051830516</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>72</v>
+        <v>72.120000000000005</v>
       </c>
       <c r="B146" s="0">
-        <v>1.72</v>
+        <v>1.7212000000000001</v>
       </c>
       <c r="C146" s="0">
-        <v>34.206589196310929</v>
+        <v>34.230434389140278</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>72.5</v>
+        <v>72.620000000000005</v>
       </c>
       <c r="B147" s="0">
-        <v>1.7250000000000001</v>
+        <v>1.7262</v>
       </c>
       <c r="C147" s="0">
-        <v>34.299231269213863</v>
+        <v>34.329996709173187</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>73</v>
+        <v>73.120000000000005</v>
       </c>
       <c r="B148" s="0">
-        <v>1.73</v>
+        <v>1.7312000000000001</v>
       </c>
       <c r="C148" s="0">
-        <v>34.388250856389973</v>
+        <v>34.409384615384617</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>73.5</v>
+        <v>73.620000000000005</v>
       </c>
       <c r="B149" s="0">
-        <v>1.7349999999999999</v>
+        <v>1.7362000000000002</v>
       </c>
       <c r="C149" s="0">
-        <v>34.477008168642946</v>
+        <v>34.497800082270672</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>74</v>
+        <v>74.120000000000005</v>
       </c>
       <c r="B150" s="0">
-        <v>1.74</v>
+        <v>1.7412000000000001</v>
       </c>
       <c r="C150" s="0">
-        <v>34.563866315327175</v>
+        <v>34.580981489099138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>74.5</v>
+        <v>74.620000000000005</v>
       </c>
       <c r="B151" s="0">
-        <v>1.7450000000000001</v>
+        <v>1.7462</v>
       </c>
       <c r="C151" s="0">
-        <v>34.653394115063669</v>
+        <v>34.677689839572196</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>75</v>
+        <v>75.120000000000005</v>
       </c>
       <c r="B152" s="0">
-        <v>1.75</v>
+        <v>1.7512000000000001</v>
       </c>
       <c r="C152" s="0">
-        <v>34.733759156785233</v>
+        <v>34.753756478815312</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>75.5</v>
+        <v>75.620000000000005</v>
       </c>
       <c r="B153" s="0">
-        <v>1.7549999999999999</v>
+        <v>1.7562000000000002</v>
       </c>
       <c r="C153" s="0">
-        <v>34.829260781730341</v>
+        <v>34.843610859728507</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>76</v>
+        <v>76.120000000000005</v>
       </c>
       <c r="B154" s="0">
-        <v>1.76</v>
+        <v>1.7612000000000001</v>
       </c>
       <c r="C154" s="0">
-        <v>34.899224418093972</v>
+        <v>34.929207733443036</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>76.5</v>
+        <v>76.620000000000005</v>
       </c>
       <c r="B155" s="0">
-        <v>1.7650000000000001</v>
+        <v>1.7662</v>
       </c>
       <c r="C155" s="0">
-        <v>34.991245322793134</v>
+        <v>35.001807486631023</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>77</v>
+        <v>77.120000000000005</v>
       </c>
       <c r="B156" s="0">
-        <v>1.77</v>
+        <v>1.7712000000000001</v>
       </c>
       <c r="C156" s="0">
-        <v>35.068887659200684</v>
+        <v>35.089153434800508</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>77.5</v>
+        <v>77.620000000000005</v>
       </c>
       <c r="B157" s="0">
-        <v>1.7749999999999999</v>
+        <v>1.7762000000000002</v>
       </c>
       <c r="C157" s="0">
-        <v>35.157682037768986</v>
+        <v>35.175748251748267</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>78</v>
+        <v>78.120000000000005</v>
       </c>
       <c r="B158" s="0">
-        <v>1.78</v>
+        <v>1.7812000000000001</v>
       </c>
       <c r="C158" s="0">
-        <v>35.24138445322793</v>
+        <v>35.259528589058</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>78.5</v>
+        <v>78.620000000000005</v>
       </c>
       <c r="B159" s="0">
-        <v>1.7850000000000001</v>
+        <v>1.7862</v>
       </c>
       <c r="C159" s="0">
-        <v>35.323549582784359</v>
+        <v>35.346640888523247</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>79</v>
+        <v>79.120000000000005</v>
       </c>
       <c r="B160" s="0">
-        <v>1.79</v>
+        <v>1.7911999999999999</v>
       </c>
       <c r="C160" s="0">
-        <v>35.404424769433462</v>
+        <v>35.42702097902098</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>79.5</v>
+        <v>79.620000000000005</v>
       </c>
       <c r="B161" s="0">
-        <v>1.7949999999999999</v>
+        <v>1.7962</v>
       </c>
       <c r="C161" s="0">
-        <v>35.480651032059725</v>
+        <v>35.500237762237767</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>80</v>
+        <v>80.120000000000005</v>
       </c>
       <c r="B162" s="0">
-        <v>1.8</v>
+        <v>1.8012000000000001</v>
       </c>
       <c r="C162" s="0">
-        <v>35.563871936758879</v>
+        <v>35.579109831345129</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>80.5</v>
+        <v>80.620000000000005</v>
       </c>
       <c r="B163" s="0">
-        <v>1.8050000000000002</v>
+        <v>1.8062</v>
       </c>
       <c r="C163" s="0">
-        <v>35.649774440052688</v>
+        <v>35.660779103249695</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>81</v>
+        <v>81.120000000000005</v>
       </c>
       <c r="B164" s="0">
-        <v>1.8100000000000001</v>
+        <v>1.8111999999999999</v>
       </c>
       <c r="C164" s="0">
-        <v>35.724496442687744</v>
+        <v>35.743761415055538</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>81.5</v>
+        <v>81.620000000000005</v>
       </c>
       <c r="B165" s="0">
-        <v>1.8149999999999999</v>
+        <v>1.8162</v>
       </c>
       <c r="C165" s="0">
-        <v>35.808315502854633</v>
+        <v>35.833758946935419</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>82</v>
+        <v>82.120000000000005</v>
       </c>
       <c r="B166" s="0">
-        <v>1.8200000000000001</v>
+        <v>1.8212000000000002</v>
       </c>
       <c r="C166" s="0">
-        <v>35.89035854194114</v>
+        <v>35.895961332784864</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>82.5</v>
+        <v>82.620000000000005</v>
       </c>
       <c r="B167" s="0">
-        <v>1.8250000000000002</v>
+        <v>1.8262</v>
       </c>
       <c r="C167" s="0">
-        <v>35.962307773386023</v>
+        <v>35.984538050185108</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>83</v>
+        <v>83.120000000000005</v>
       </c>
       <c r="B168" s="0">
-        <v>1.8300000000000001</v>
+        <v>1.8311999999999999</v>
       </c>
       <c r="C168" s="0">
-        <v>36.033659903381633</v>
+        <v>36.051849444672982</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>83.5</v>
+        <v>83.620000000000005</v>
       </c>
       <c r="B169" s="0">
-        <v>1.835</v>
+        <v>1.8362000000000001</v>
       </c>
       <c r="C169" s="0">
-        <v>36.126538427755811</v>
+        <v>36.138668037844518</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>84</v>
+        <v>84.120000000000005</v>
       </c>
       <c r="B170" s="0">
-        <v>1.8399999999999999</v>
+        <v>1.8412000000000002</v>
       </c>
       <c r="C170" s="0">
-        <v>36.197505841018881</v>
+        <v>36.220323323735087</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>84.5</v>
+        <v>84.620000000000005</v>
       </c>
       <c r="B171" s="0">
-        <v>1.845</v>
+        <v>1.8462000000000001</v>
       </c>
       <c r="C171" s="0">
-        <v>36.269567149758444</v>
+        <v>36.289626491155907</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>85</v>
+        <v>85.120000000000005</v>
       </c>
       <c r="B172" s="0">
-        <v>1.8500000000000001</v>
+        <v>1.8512</v>
       </c>
       <c r="C172" s="0">
-        <v>36.344656302151947</v>
+        <v>36.365853558206503</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>85.5</v>
+        <v>85.620000000000005</v>
       </c>
       <c r="B173" s="0">
-        <v>1.855</v>
+        <v>1.8562000000000001</v>
       </c>
       <c r="C173" s="0">
-        <v>36.412508212560375</v>
+        <v>36.440467297408475</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>86</v>
+        <v>86.120000000000005</v>
       </c>
       <c r="B174" s="0">
-        <v>1.8599999999999999</v>
+        <v>1.8612000000000002</v>
       </c>
       <c r="C174" s="0">
-        <v>36.499075274483971</v>
+        <v>36.521460304401479</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>86.5</v>
+        <v>86.620000000000005</v>
       </c>
       <c r="B175" s="0">
-        <v>1.865</v>
+        <v>1.8662000000000001</v>
       </c>
       <c r="C175" s="0">
-        <v>36.57125832235397</v>
+        <v>36.5981456190868</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>87</v>
+        <v>87.120000000000005</v>
       </c>
       <c r="B176" s="0">
-        <v>1.8700000000000001</v>
+        <v>1.8712</v>
       </c>
       <c r="C176" s="0">
-        <v>36.65265226174791</v>
+        <v>36.67324886877828</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>87.5</v>
+        <v>87.620000000000005</v>
       </c>
       <c r="B177" s="0">
-        <v>1.875</v>
+        <v>1.8762000000000001</v>
       </c>
       <c r="C177" s="0">
-        <v>36.716118401405346</v>
+        <v>36.73059728506788</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>88</v>
+        <v>88.120000000000005</v>
       </c>
       <c r="B178" s="0">
-        <v>1.8799999999999999</v>
+        <v>1.8812000000000002</v>
       </c>
       <c r="C178" s="0">
-        <v>36.794012472551586</v>
+        <v>36.815628959276026</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>88.5</v>
+        <v>88.620000000000005</v>
       </c>
       <c r="B179" s="0">
-        <v>1.885</v>
+        <v>1.8862000000000001</v>
       </c>
       <c r="C179" s="0">
-        <v>36.868823188405791</v>
+        <v>36.885119703825595</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>89</v>
+        <v>89.120000000000005</v>
       </c>
       <c r="B180" s="0">
-        <v>1.8900000000000001</v>
+        <v>1.8912</v>
       </c>
       <c r="C180" s="0">
-        <v>36.94024997804128</v>
+        <v>36.959313862607978</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>89.5</v>
+        <v>89.620000000000005</v>
       </c>
       <c r="B181" s="0">
-        <v>1.895</v>
+        <v>1.8962000000000001</v>
       </c>
       <c r="C181" s="0">
-        <v>37.013194027228806</v>
+        <v>37.033468531468536</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>90</v>
+        <v>90.120000000000005</v>
       </c>
       <c r="B182" s="0">
-        <v>1.8999999999999999</v>
+        <v>1.9012000000000002</v>
       </c>
       <c r="C182" s="0">
-        <v>37.075173122529634</v>
+        <v>37.096566022213089</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>90.5</v>
+        <v>90.620000000000005</v>
       </c>
       <c r="B183" s="0">
-        <v>1.905</v>
+        <v>1.9062000000000001</v>
       </c>
       <c r="C183" s="0">
-        <v>37.152707949055767</v>
+        <v>37.16788399835459</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>91</v>
+        <v>91.120000000000005</v>
       </c>
       <c r="B184" s="0">
-        <v>1.9100000000000001</v>
+        <v>1.9112</v>
       </c>
       <c r="C184" s="0">
-        <v>37.226477470355718</v>
+        <v>37.242909090909095</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>91.5</v>
+        <v>91.620000000000005</v>
       </c>
       <c r="B185" s="0">
-        <v>1.915</v>
+        <v>1.9161999999999999</v>
       </c>
       <c r="C185" s="0">
-        <v>37.294470794905578</v>
+        <v>37.310713286713295</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>92</v>
+        <v>92.120000000000005</v>
       </c>
       <c r="B186" s="0">
-        <v>1.9199999999999999</v>
+        <v>1.9212</v>
       </c>
       <c r="C186" s="0">
-        <v>37.36714009661835</v>
+        <v>37.383364047717002</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>92.5</v>
+        <v>92.620000000000005</v>
       </c>
       <c r="B187" s="0">
-        <v>1.925</v>
+        <v>1.9262000000000001</v>
       </c>
       <c r="C187" s="0">
-        <v>37.434500483091774</v>
+        <v>37.450101192924727</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>93</v>
+        <v>93.120000000000005</v>
       </c>
       <c r="B188" s="0">
-        <v>1.9300000000000002</v>
+        <v>1.9312</v>
       </c>
       <c r="C188" s="0">
-        <v>37.497532015810272</v>
+        <v>37.518828465651993</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>93.5</v>
+        <v>93.620000000000005</v>
       </c>
       <c r="B189" s="0">
-        <v>1.9350000000000001</v>
+        <v>1.9361999999999999</v>
       </c>
       <c r="C189" s="0">
-        <v>37.571097760210797</v>
+        <v>37.590822706705069</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>94</v>
+        <v>94.120000000000005</v>
       </c>
       <c r="B190" s="0">
-        <v>1.9399999999999999</v>
+        <v>1.9412</v>
       </c>
       <c r="C190" s="0">
-        <v>37.643171365832231</v>
+        <v>37.654467297408473</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>94.5</v>
+        <v>94.620000000000005</v>
       </c>
       <c r="B191" s="0">
-        <v>1.9450000000000001</v>
+        <v>1.9462000000000002</v>
       </c>
       <c r="C191" s="0">
-        <v>37.712780324989012</v>
+        <v>37.718350473056361</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>95</v>
+        <v>95.120000000000005</v>
       </c>
       <c r="B192" s="0">
-        <v>1.9500000000000002</v>
+        <v>1.9512</v>
       </c>
       <c r="C192" s="0">
-        <v>37.770267896354845</v>
+        <v>37.791482517482521</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>95.5</v>
+        <v>95.620000000000005</v>
       </c>
       <c r="B193" s="0">
-        <v>1.9550000000000001</v>
+        <v>1.9561999999999999</v>
       </c>
       <c r="C193" s="0">
-        <v>37.853122880983747</v>
+        <v>37.868230357877422</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>96</v>
+        <v>96.120000000000005</v>
       </c>
       <c r="B194" s="0">
-        <v>1.96</v>
+        <v>1.9612000000000001</v>
       </c>
       <c r="C194" s="0">
-        <v>37.918736231884047</v>
+        <v>37.940067461949816</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>96.5</v>
+        <v>96.620000000000005</v>
       </c>
       <c r="B195" s="0">
-        <v>1.9649999999999999</v>
+        <v>1.9662000000000002</v>
       </c>
       <c r="C195" s="0">
-        <v>37.982669477382522</v>
+        <v>37.995657754010701</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>97</v>
+        <v>97.120000000000005</v>
       </c>
       <c r="B196" s="0">
-        <v>1.97</v>
+        <v>1.9712000000000001</v>
       </c>
       <c r="C196" s="0">
-        <v>38.051460166886251</v>
+        <v>38.069050596462368</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>97.5</v>
+        <v>97.620000000000005</v>
       </c>
       <c r="B197" s="0">
-        <v>1.9750000000000001</v>
+        <v>1.9762</v>
       </c>
       <c r="C197" s="0">
-        <v>38.116425823451905</v>
+        <v>38.133381324557796</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>98</v>
+        <v>98.120000000000005</v>
       </c>
       <c r="B198" s="0">
-        <v>1.98</v>
+        <v>1.9812000000000001</v>
       </c>
       <c r="C198" s="0">
-        <v>38.178567940272274</v>
+        <v>38.194770053475942</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>98.5</v>
+        <v>98.620000000000005</v>
       </c>
       <c r="B199" s="0">
-        <v>1.9849999999999999</v>
+        <v>1.9862000000000002</v>
       </c>
       <c r="C199" s="0">
-        <v>38.244762582345189</v>
+        <v>38.263419169066232</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>99</v>
+        <v>99.120000000000005</v>
       </c>
       <c r="B200" s="0">
-        <v>1.99</v>
+        <v>1.9912000000000001</v>
       </c>
       <c r="C200" s="0">
-        <v>38.317383926218703</v>
+        <v>38.337052241875774</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>99.5</v>
+        <v>99.620000000000005</v>
       </c>
       <c r="B201" s="0">
-        <v>1.9950000000000001</v>
+        <v>1.9962</v>
       </c>
       <c r="C201" s="0">
-        <v>38.377237417654804</v>
+        <v>38.389992595639661</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>100</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B202" s="0">
-        <v>1.9900000000000002</v>
+        <v>1.9914000000000001</v>
       </c>
       <c r="C202" s="0">
-        <v>38.238628222019521</v>
+        <v>37.9915269756981</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>100.48</v>
+        <v>100.59999999999999</v>
       </c>
       <c r="B203" s="0">
-        <v>1.9852000000000001</v>
+        <v>1.9864000000000002</v>
       </c>
       <c r="C203" s="0">
-        <v>37.648433265460923</v>
+        <v>37.506181892973331</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>100.98</v>
+        <v>101.09999999999999</v>
       </c>
       <c r="B204" s="0">
-        <v>1.9802</v>
+        <v>1.9814000000000001</v>
       </c>
       <c r="C204" s="0">
-        <v>37.119161256837138</v>
+        <v>37.009496279121947</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>101.48</v>
+        <v>101.59999999999999</v>
       </c>
       <c r="B205" s="0">
-        <v>1.9752000000000001</v>
+        <v>1.9764000000000002</v>
       </c>
       <c r="C205" s="0">
-        <v>36.679744480376883</v>
+        <v>36.577060693317392</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>101.98</v>
+        <v>102.09999999999999</v>
       </c>
       <c r="B206" s="0">
-        <v>1.9702000000000002</v>
+        <v>1.9714</v>
       </c>
       <c r="C206" s="0">
-        <v>36.285443526170788</v>
+        <v>36.199784600426312</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>102.48</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="B207" s="0">
-        <v>1.9652000000000001</v>
+        <v>1.9664000000000001</v>
       </c>
       <c r="C207" s="0">
-        <v>35.908019483371255</v>
+        <v>35.824118394974022</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>102.98</v>
+        <v>103.09999999999999</v>
       </c>
       <c r="B208" s="0">
-        <v>1.9602000000000002</v>
+        <v>1.9614</v>
       </c>
       <c r="C208" s="0">
-        <v>35.566162175110783</v>
+        <v>35.474004711865689</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>103.48</v>
+        <v>103.59999999999999</v>
       </c>
       <c r="B209" s="0">
-        <v>1.9552</v>
+        <v>1.9564000000000001</v>
       </c>
       <c r="C209" s="0">
-        <v>35.227037409669812</v>
+        <v>35.142088927115672</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>103.98</v>
+        <v>104.09999999999999</v>
       </c>
       <c r="B210" s="0">
-        <v>1.9502000000000002</v>
+        <v>1.9514</v>
       </c>
       <c r="C210" s="0">
-        <v>34.905449275362315</v>
+        <v>34.826469092404928</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>104.48</v>
+        <v>104.59999999999999</v>
       </c>
       <c r="B211" s="0">
-        <v>1.9452</v>
+        <v>1.9464000000000001</v>
       </c>
       <c r="C211" s="0">
-        <v>34.598016209526079</v>
+        <v>34.526018099547514</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>104.98</v>
+        <v>105.09999999999999</v>
       </c>
       <c r="B212" s="0">
-        <v>1.9402000000000001</v>
+        <v>1.9414</v>
       </c>
       <c r="C212" s="0">
-        <v>34.29286988461692</v>
+        <v>34.222380614038379</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>105.48</v>
+        <v>105.59999999999999</v>
       </c>
       <c r="B213" s="0">
-        <v>1.9352</v>
+        <v>1.9364000000000001</v>
       </c>
       <c r="C213" s="0">
-        <v>33.99329740088632</v>
+        <v>33.926642234770583</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>105.98</v>
+        <v>106.09999999999999</v>
       </c>
       <c r="B214" s="0">
-        <v>1.9302000000000001</v>
+        <v>1.9314</v>
       </c>
       <c r="C214" s="0">
-        <v>33.715072703317759</v>
+        <v>33.649553120676124</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>106.48</v>
+        <v>106.59999999999999</v>
       </c>
       <c r="B215" s="0">
-        <v>1.9252</v>
+        <v>1.9264000000000001</v>
       </c>
       <c r="C215" s="0">
-        <v>33.432386553279819</v>
+        <v>33.367349762536932</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>106.98</v>
+        <v>107.09999999999999</v>
       </c>
       <c r="B216" s="0">
-        <v>1.9202000000000001</v>
+        <v>1.9214</v>
       </c>
       <c r="C216" s="0">
-        <v>33.154919391543892</v>
+        <v>33.094627351258374</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>107.48</v>
+        <v>107.59999999999999</v>
       </c>
       <c r="B217" s="0">
-        <v>1.9152</v>
+        <v>1.9164000000000001</v>
       </c>
       <c r="C217" s="0">
-        <v>32.891166367229602</v>
+        <v>32.82399947645937</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>107.98</v>
+        <v>108.09999999999999</v>
       </c>
       <c r="B218" s="0">
-        <v>1.9102000000000001</v>
+        <v>1.9114</v>
       </c>
       <c r="C218" s="0">
-        <v>32.623547490717449</v>
+        <v>32.558185183800163</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>108.48</v>
+        <v>108.59999999999999</v>
       </c>
       <c r="B219" s="0">
-        <v>1.9052</v>
+        <v>1.9064000000000001</v>
       </c>
       <c r="C219" s="0">
-        <v>32.360098295205006</v>
+        <v>32.299240492128199</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>108.98</v>
+        <v>109.09999999999999</v>
       </c>
       <c r="B220" s="0">
-        <v>1.9002000000000001</v>
+        <v>1.9014</v>
       </c>
       <c r="C220" s="0">
-        <v>32.109256916996038</v>
+        <v>32.042084439624553</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>109.48</v>
+        <v>109.59999999999999</v>
       </c>
       <c r="B221" s="0">
-        <v>1.8952</v>
+        <v>1.8964000000000001</v>
       </c>
       <c r="C221" s="0">
-        <v>31.855453667105834</v>
+        <v>31.793781833140127</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>109.98</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B222" s="0">
-        <v>1.8902000000000001</v>
+        <v>1.8914</v>
       </c>
       <c r="C222" s="0">
-        <v>31.602268934403316</v>
+        <v>31.542632287498602</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>110.48</v>
+        <v>110.59999999999999</v>
       </c>
       <c r="B223" s="0">
-        <v>1.8852</v>
+        <v>1.8864000000000001</v>
       </c>
       <c r="C223" s="0">
-        <v>31.356967860422401</v>
+        <v>31.298172469241997</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>110.98</v>
+        <v>111.09999999999999</v>
       </c>
       <c r="B224" s="0">
-        <v>1.8802000000000001</v>
+        <v>1.8814000000000002</v>
       </c>
       <c r="C224" s="0">
-        <v>31.113957998961943</v>
+        <v>31.05191466287723</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>111.48</v>
+        <v>111.59999999999999</v>
       </c>
       <c r="B225" s="0">
-        <v>1.8752</v>
+        <v>1.8764000000000001</v>
       </c>
       <c r="C225" s="0">
-        <v>30.87439078532358</v>
+        <v>30.812903780711274</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>111.98</v>
+        <v>112.09999999999999</v>
       </c>
       <c r="B226" s="0">
-        <v>1.8702000000000001</v>
+        <v>1.8714000000000002</v>
       </c>
       <c r="C226" s="0">
-        <v>30.624642951251648</v>
+        <v>30.573454994203665</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>112.48</v>
+        <v>112.59999999999999</v>
       </c>
       <c r="B227" s="0">
-        <v>1.8652</v>
+        <v>1.8664000000000001</v>
       </c>
       <c r="C227" s="0">
-        <v>30.395028945582304</v>
+        <v>30.335293369731872</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>112.98</v>
+        <v>113.09999999999999</v>
       </c>
       <c r="B228" s="0">
-        <v>1.8602000000000001</v>
+        <v>1.8614000000000002</v>
       </c>
       <c r="C228" s="0">
-        <v>30.150738611410542</v>
+        <v>30.094250028046822</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>113.48</v>
+        <v>113.59999999999999</v>
       </c>
       <c r="B229" s="0">
-        <v>1.8552</v>
+        <v>1.8564000000000001</v>
       </c>
       <c r="C229" s="0">
-        <v>29.928226214716325</v>
+        <v>29.869912867880785</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>113.98</v>
+        <v>114.09999999999999</v>
       </c>
       <c r="B230" s="0">
-        <v>1.8502000000000001</v>
+        <v>1.8514000000000002</v>
       </c>
       <c r="C230" s="0">
-        <v>29.690770471513549</v>
+        <v>29.6370760255787</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>114.48</v>
+        <v>114.59999999999999</v>
       </c>
       <c r="B231" s="0">
-        <v>1.8452000000000002</v>
+        <v>1.8464</v>
       </c>
       <c r="C231" s="0">
-        <v>29.468270611250848</v>
+        <v>29.413849893422093</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>114.98</v>
+        <v>115.09999999999999</v>
       </c>
       <c r="B232" s="0">
-        <v>1.8402000000000001</v>
+        <v>1.8414000000000001</v>
       </c>
       <c r="C232" s="0">
-        <v>29.232075218589046</v>
+        <v>29.177928648891225</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>115.48</v>
+        <v>115.59999999999999</v>
       </c>
       <c r="B233" s="0">
-        <v>1.8351999999999999</v>
+        <v>1.8364</v>
       </c>
       <c r="C233" s="0">
-        <v>29.015205892921294</v>
+        <v>28.957049474589581</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>115.98</v>
+        <v>116.09999999999999</v>
       </c>
       <c r="B234" s="0">
-        <v>1.8302</v>
+        <v>1.8314000000000001</v>
       </c>
       <c r="C234" s="0">
-        <v>28.786373936998434</v>
+        <v>28.733980778579713</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>116.48</v>
+        <v>116.59999999999999</v>
       </c>
       <c r="B235" s="0">
-        <v>1.8252000000000002</v>
+        <v>1.8264</v>
       </c>
       <c r="C235" s="0">
-        <v>28.557994011258828</v>
+        <v>28.503255300848892</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>116.98</v>
+        <v>117.09999999999999</v>
       </c>
       <c r="B236" s="0">
-        <v>1.8202</v>
+        <v>1.8214000000000001</v>
       </c>
       <c r="C236" s="0">
-        <v>28.339948496825951</v>
+        <v>28.286365506151604</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>117.48</v>
+        <v>117.59999999999999</v>
       </c>
       <c r="B237" s="0">
-        <v>1.8152000000000001</v>
+        <v>1.8164</v>
       </c>
       <c r="C237" s="0">
-        <v>28.116450193635956</v>
+        <v>28.065538311955429</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>117.98</v>
+        <v>118.09999999999999</v>
       </c>
       <c r="B238" s="0">
-        <v>1.8102</v>
+        <v>1.8114000000000001</v>
       </c>
       <c r="C238" s="0">
-        <v>27.898797061524327</v>
+        <v>27.838612243371607</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>118.48</v>
+        <v>118.59999999999999</v>
       </c>
       <c r="B239" s="0">
-        <v>1.8052000000000001</v>
+        <v>1.8064</v>
       </c>
       <c r="C239" s="0">
-        <v>27.673888369864642</v>
+        <v>27.623103848023636</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>118.98</v>
+        <v>119.09999999999999</v>
       </c>
       <c r="B240" s="0">
-        <v>1.8002</v>
+        <v>1.8014000000000001</v>
       </c>
       <c r="C240" s="0">
-        <v>27.458953327743842</v>
+        <v>27.40983957219251</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>119.48</v>
+        <v>119.59999999999999</v>
       </c>
       <c r="B241" s="0">
-        <v>1.7952000000000001</v>
+        <v>1.7964</v>
       </c>
       <c r="C241" s="0">
-        <v>27.241822653411585</v>
+        <v>27.18826895030104</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>119.98</v>
+        <v>120.09999999999999</v>
       </c>
       <c r="B242" s="0">
-        <v>1.7902</v>
+        <v>1.7914000000000001</v>
       </c>
       <c r="C242" s="0">
-        <v>27.023284944304706</v>
+        <v>26.970378071126735</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>120.48</v>
+        <v>120.59999999999999</v>
       </c>
       <c r="B243" s="0">
-        <v>1.7852000000000001</v>
+        <v>1.7864</v>
       </c>
       <c r="C243" s="0">
-        <v>26.812649738491633</v>
+        <v>26.762047791780418</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>120.98</v>
+        <v>121.09999999999999</v>
       </c>
       <c r="B244" s="0">
-        <v>1.7802</v>
+        <v>1.7814000000000001</v>
       </c>
       <c r="C244" s="0">
-        <v>26.591920469517301</v>
+        <v>26.542286376724885</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>121.48</v>
+        <v>121.59999999999999</v>
       </c>
       <c r="B245" s="0">
-        <v>1.7752000000000001</v>
+        <v>1.7764</v>
       </c>
       <c r="C245" s="0">
-        <v>26.384363636363638</v>
+        <v>26.333744063423207</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>121.98</v>
+        <v>122.09999999999999</v>
       </c>
       <c r="B246" s="0">
-        <v>1.7702</v>
+        <v>1.7714000000000001</v>
       </c>
       <c r="C246" s="0">
-        <v>26.167835189843089</v>
+        <v>26.119141767323587</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>122.48</v>
+        <v>122.59999999999999</v>
       </c>
       <c r="B247" s="0">
-        <v>1.7652000000000001</v>
+        <v>1.7664</v>
       </c>
       <c r="C247" s="0">
-        <v>25.948688226134866</v>
+        <v>25.8993283721626</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>122.98</v>
+        <v>123.09999999999999</v>
       </c>
       <c r="B248" s="0">
-        <v>1.7602</v>
+        <v>1.7614000000000001</v>
       </c>
       <c r="C248" s="0">
-        <v>25.739436978480455</v>
+        <v>25.684908941326057</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>123.48</v>
+        <v>123.59999999999999</v>
       </c>
       <c r="B249" s="0">
-        <v>1.7552000000000001</v>
+        <v>1.7564000000000002</v>
       </c>
       <c r="C249" s="0">
-        <v>25.532134706751304</v>
+        <v>25.48074791518642</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>123.98</v>
+        <v>124.09999999999999</v>
       </c>
       <c r="B250" s="0">
-        <v>1.7502</v>
+        <v>1.7514000000000001</v>
       </c>
       <c r="C250" s="0">
-        <v>25.323329979638274</v>
+        <v>25.269797314984487</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>124.48</v>
+        <v>124.59999999999999</v>
       </c>
       <c r="B251" s="0">
-        <v>1.7452000000000001</v>
+        <v>1.7464</v>
       </c>
       <c r="C251" s="0">
-        <v>25.102961632131585</v>
+        <v>25.049720653677877</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>124.98</v>
+        <v>125.09999999999999</v>
       </c>
       <c r="B252" s="0">
-        <v>1.7402000000000002</v>
+        <v>1.7414000000000001</v>
       </c>
       <c r="C252" s="0">
-        <v>24.897560905497659</v>
+        <v>24.846201338768189</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>125.48</v>
+        <v>125.59999999999999</v>
       </c>
       <c r="B253" s="0">
-        <v>1.7352000000000001</v>
+        <v>1.7364000000000002</v>
       </c>
       <c r="C253" s="0">
-        <v>24.685437218030096</v>
+        <v>24.635215586552487</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>125.98</v>
+        <v>126.09999999999999</v>
       </c>
       <c r="B254" s="0">
-        <v>1.7302</v>
+        <v>1.7314000000000001</v>
       </c>
       <c r="C254" s="0">
-        <v>24.480068750748593</v>
+        <v>24.428778654500583</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>126.48</v>
+        <v>126.59999999999999</v>
       </c>
       <c r="B255" s="0">
-        <v>1.7252000000000001</v>
+        <v>1.7263999999999999</v>
       </c>
       <c r="C255" s="0">
-        <v>24.273181937956636</v>
+        <v>24.217660147339295</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>126.98</v>
+        <v>127.09999999999999</v>
       </c>
       <c r="B256" s="0">
-        <v>1.7202000000000002</v>
+        <v>1.7214</v>
       </c>
       <c r="C256" s="0">
-        <v>24.061633009941307</v>
+        <v>24.009772259825741</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>127.48</v>
+        <v>127.59999999999999</v>
       </c>
       <c r="B257" s="0">
-        <v>1.7152000000000001</v>
+        <v>1.7164000000000001</v>
       </c>
       <c r="C257" s="0">
-        <v>23.851899788397802</v>
+        <v>23.803908604764228</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>127.98</v>
+        <v>128.09999999999999</v>
       </c>
       <c r="B258" s="0">
-        <v>1.7101999999999999</v>
+        <v>1.7114</v>
       </c>
       <c r="C258" s="0">
-        <v>23.641428434543052</v>
+        <v>23.587000860102467</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>128.47999999999999</v>
+        <v>128.59999999999999</v>
       </c>
       <c r="B259" s="0">
-        <v>1.7052000000000003</v>
+        <v>1.7064000000000001</v>
       </c>
       <c r="C259" s="0">
-        <v>23.431636203936591</v>
+        <v>23.3799670917318</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>128.97999999999999</v>
+        <v>129.09999999999999</v>
       </c>
       <c r="B260" s="0">
-        <v>1.7002000000000002</v>
+        <v>1.7014</v>
       </c>
       <c r="C260" s="0">
-        <v>23.230195552361554</v>
+        <v>23.176052877603691</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>129.47999999999999</v>
+        <v>129.59999999999999</v>
       </c>
       <c r="B261" s="0">
-        <v>1.6952000000000003</v>
+        <v>1.6964000000000001</v>
       </c>
       <c r="C261" s="0">
-        <v>23.013940751387388</v>
+        <v>22.959860513817741</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>129.97999999999999</v>
+        <v>130.09999999999999</v>
       </c>
       <c r="B262" s="0">
-        <v>1.6902000000000001</v>
+        <v>1.6914</v>
       </c>
       <c r="C262" s="0">
-        <v>22.806423284225648</v>
+        <v>22.753035039826486</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>130.47999999999999</v>
+        <v>130.59999999999999</v>
       </c>
       <c r="B263" s="0">
-        <v>1.6852000000000003</v>
+        <v>1.6864000000000001</v>
       </c>
       <c r="C263" s="0">
-        <v>22.599461891643706</v>
+        <v>22.546842676040541</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>130.97999999999999</v>
+        <v>131.09999999999999</v>
       </c>
       <c r="B264" s="0">
-        <v>1.6802000000000001</v>
+        <v>1.6814</v>
       </c>
       <c r="C264" s="0">
-        <v>22.397106799217468</v>
+        <v>22.34297258890842</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>131.47999999999999</v>
+        <v>131.59999999999999</v>
       </c>
       <c r="B265" s="0">
-        <v>1.6752000000000002</v>
+        <v>1.6764000000000001</v>
       </c>
       <c r="C265" s="0">
-        <v>22.17848005749191</v>
+        <v>22.12933360756891</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>131.97999999999999</v>
+        <v>132.09999999999999</v>
       </c>
       <c r="B266" s="0">
-        <v>1.6702000000000001</v>
+        <v>1.6714</v>
       </c>
       <c r="C266" s="0">
-        <v>21.974008863336923</v>
+        <v>21.92565835234285</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>132.47999999999999</v>
+        <v>132.59999999999999</v>
       </c>
       <c r="B267" s="0">
-        <v>1.6652000000000002</v>
+        <v>1.6664000000000001</v>
       </c>
       <c r="C267" s="0">
-        <v>21.763580388868924</v>
+        <v>21.708205377510193</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>132.97999999999999</v>
+        <v>133.09999999999999</v>
       </c>
       <c r="B268" s="0">
-        <v>1.6602000000000001</v>
+        <v>1.6614</v>
       </c>
       <c r="C268" s="0">
-        <v>21.556955563540537</v>
+        <v>21.511604278074866</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>133.47999999999999</v>
+        <v>133.59999999999999</v>
       </c>
       <c r="B269" s="0">
-        <v>1.6552000000000002</v>
+        <v>1.6564000000000001</v>
       </c>
       <c r="C269" s="0">
-        <v>21.35447766199545</v>
+        <v>21.302720167533</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>133.97999999999999</v>
+        <v>134.09999999999999</v>
       </c>
       <c r="B270" s="0">
-        <v>1.6502000000000003</v>
+        <v>1.6514000000000002</v>
       </c>
       <c r="C270" s="0">
-        <v>21.142892561983466</v>
+        <v>21.08911484237688</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>134.47999999999999</v>
+        <v>134.59999999999999</v>
       </c>
       <c r="B271" s="0">
-        <v>1.6452000000000002</v>
+        <v>1.6464000000000001</v>
       </c>
       <c r="C271" s="0">
-        <v>20.930126402363555</v>
+        <v>20.879783478553538</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>134.97999999999999</v>
+        <v>135.09999999999999</v>
       </c>
       <c r="B272" s="0">
-        <v>1.6402000000000001</v>
+        <v>1.6414</v>
       </c>
       <c r="C272" s="0">
-        <v>20.720186768874512</v>
+        <v>20.669062488313827</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>135.47999999999999</v>
+        <v>135.59999999999999</v>
       </c>
       <c r="B273" s="0">
-        <v>1.6352000000000002</v>
+        <v>1.6364000000000001</v>
       </c>
       <c r="C273" s="0">
-        <v>20.512742923304181</v>
+        <v>20.464786283235487</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>135.97999999999999</v>
+        <v>136.09999999999999</v>
       </c>
       <c r="B274" s="0">
-        <v>1.6302000000000003</v>
+        <v>1.6314000000000002</v>
       </c>
       <c r="C274" s="0">
-        <v>20.303813710224777</v>
+        <v>20.253283347668372</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>136.47999999999999</v>
+        <v>136.59999999999999</v>
       </c>
       <c r="B275" s="0">
-        <v>1.6252000000000002</v>
+        <v>1.6264000000000001</v>
       </c>
       <c r="C275" s="0">
-        <v>20.089929173154466</v>
+        <v>20.046923450880673</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>136.97999999999999</v>
+        <v>137.09999999999999</v>
       </c>
       <c r="B276" s="0">
-        <v>1.6202000000000001</v>
+        <v>1.6214</v>
       </c>
       <c r="C276" s="0">
-        <v>19.882270770950608</v>
+        <v>19.839394188699007</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>137.47999999999999</v>
+        <v>137.59999999999999</v>
       </c>
       <c r="B277" s="0">
-        <v>1.6152000000000002</v>
+        <v>1.6164000000000001</v>
       </c>
       <c r="C277" s="0">
-        <v>19.675838862937674</v>
+        <v>19.627043491268093</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>137.97999999999999</v>
+        <v>138.09999999999999</v>
       </c>
       <c r="B278" s="0">
-        <v>1.6102000000000003</v>
+        <v>1.6114000000000002</v>
       </c>
       <c r="C278" s="0">
-        <v>19.457996326905413</v>
+        <v>19.407062189147751</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>138.47999999999999</v>
+        <v>138.59999999999999</v>
       </c>
       <c r="B279" s="0">
-        <v>1.6052000000000002</v>
+        <v>1.6064000000000001</v>
       </c>
       <c r="C279" s="0">
-        <v>19.25406883059847</v>
+        <v>19.201463670019823</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>138.97999999999999</v>
+        <v>139.09999999999999</v>
       </c>
       <c r="B280" s="0">
-        <v>1.6002000000000001</v>
+        <v>1.6013999999999999</v>
       </c>
       <c r="C280" s="0">
-        <v>19.038083762526448</v>
+        <v>18.991575109382598</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>139.47999999999999</v>
+        <v>139.59999999999999</v>
       </c>
       <c r="B281" s="0">
-        <v>1.5952000000000002</v>
+        <v>1.5964</v>
       </c>
       <c r="C281" s="0">
-        <v>18.829898830199223</v>
+        <v>18.77907183725366</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>139.97999999999999</v>
+        <v>140.09999999999999</v>
       </c>
       <c r="B282" s="0">
-        <v>1.5902000000000003</v>
+        <v>1.5914000000000001</v>
       </c>
       <c r="C282" s="0">
-        <v>18.611958717610886</v>
+        <v>18.563103100108449</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>140.47999999999999</v>
+        <v>140.59999999999999</v>
       </c>
       <c r="B283" s="0">
-        <v>1.5852000000000002</v>
+        <v>1.5864</v>
       </c>
       <c r="C283" s="0">
-        <v>18.408773505809076</v>
+        <v>18.360462959500396</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>140.97999999999999</v>
+        <v>141.09999999999999</v>
       </c>
       <c r="B284" s="0">
-        <v>1.5802000000000003</v>
+        <v>1.5814000000000001</v>
       </c>
       <c r="C284" s="0">
-        <v>18.19572731265221</v>
+        <v>18.139078194532743</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>141.47999999999999</v>
+        <v>141.59999999999999</v>
       </c>
       <c r="B285" s="0">
-        <v>1.5752000000000002</v>
+        <v>1.5764</v>
       </c>
       <c r="C285" s="0">
-        <v>17.967268255679318</v>
+        <v>17.921668972738495</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>141.97999999999999</v>
+        <v>142.09999999999999</v>
       </c>
       <c r="B286" s="0">
-        <v>1.5702000000000003</v>
+        <v>1.5714000000000001</v>
       </c>
       <c r="C286" s="0">
-        <v>17.759172755220185</v>
+        <v>17.709810029542652</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>142.47999999999999</v>
+        <v>142.59999999999999</v>
       </c>
       <c r="B287" s="0">
-        <v>1.5652000000000001</v>
+        <v>1.5664</v>
       </c>
       <c r="C287" s="0">
-        <v>17.546473749351218</v>
+        <v>17.493185370778953</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>142.97999999999999</v>
+        <v>143.09999999999999</v>
       </c>
       <c r="B288" s="0">
-        <v>1.5602000000000003</v>
+        <v>1.5614000000000001</v>
       </c>
       <c r="C288" s="0">
-        <v>17.332627939473788</v>
+        <v>17.276503870461095</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>143.47999999999999</v>
+        <v>143.59999999999999</v>
       </c>
       <c r="B289" s="0">
-        <v>1.5552000000000001</v>
+        <v>1.5564</v>
       </c>
       <c r="C289" s="0">
-        <v>17.124700842416253</v>
+        <v>17.07174750383307</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>143.97999999999999</v>
+        <v>144.09999999999999</v>
       </c>
       <c r="B290" s="0">
-        <v>1.5502000000000002</v>
+        <v>1.5514000000000001</v>
       </c>
       <c r="C290" s="0">
-        <v>16.90089543657923</v>
+        <v>16.849455891701886</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>144.47999999999999</v>
+        <v>144.59999999999999</v>
       </c>
       <c r="B291" s="0">
-        <v>1.5452000000000001</v>
+        <v>1.5464</v>
       </c>
       <c r="C291" s="0">
-        <v>16.685513634367393</v>
+        <v>16.632567592834977</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>144.97999999999999</v>
+        <v>145.09999999999999</v>
       </c>
       <c r="B292" s="0">
-        <v>1.5402000000000002</v>
+        <v>1.5414000000000001</v>
       </c>
       <c r="C292" s="0">
-        <v>16.466032099652651</v>
+        <v>16.414168505291507</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>145.47999999999999</v>
+        <v>145.59999999999999</v>
       </c>
       <c r="B293" s="0">
-        <v>1.5352000000000001</v>
+        <v>1.5364</v>
       </c>
       <c r="C293" s="0">
-        <v>16.250642312452587</v>
+        <v>16.199847425301975</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>145.97999999999999</v>
+        <v>146.09999999999999</v>
       </c>
       <c r="B294" s="0">
-        <v>1.5302000000000002</v>
+        <v>1.5314000000000001</v>
       </c>
       <c r="C294" s="0">
-        <v>16.030845370703073</v>
+        <v>15.978997419692609</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>146.47999999999999</v>
+        <v>146.59999999999999</v>
       </c>
       <c r="B295" s="0">
-        <v>1.5252000000000003</v>
+        <v>1.5264000000000002</v>
       </c>
       <c r="C295" s="0">
-        <v>15.810303908651731</v>
+        <v>15.751928125350586</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>146.97999999999999</v>
+        <v>147.09999999999999</v>
       </c>
       <c r="B296" s="0">
-        <v>1.5202000000000002</v>
+        <v>1.5214000000000001</v>
       </c>
       <c r="C296" s="0">
-        <v>15.589645626222698</v>
+        <v>15.540229983919826</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>147.47999999999999</v>
+        <v>147.59999999999999</v>
       </c>
       <c r="B297" s="0">
-        <v>1.5152000000000001</v>
+        <v>1.5164</v>
       </c>
       <c r="C297" s="0">
-        <v>15.378607338204176</v>
+        <v>15.31979245353577</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>147.97999999999999</v>
+        <v>148.09999999999999</v>
       </c>
       <c r="B298" s="0">
-        <v>1.5102000000000002</v>
+        <v>1.5114000000000001</v>
       </c>
       <c r="C298" s="0">
-        <v>15.154140376092943</v>
+        <v>15.098313825212223</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>148.47999999999999</v>
+        <v>148.59999999999999</v>
       </c>
       <c r="B299" s="0">
-        <v>1.5052000000000003</v>
+        <v>1.5064000000000002</v>
       </c>
       <c r="C299" s="0">
-        <v>14.926919231844131</v>
+        <v>14.870926666915976</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>148.97999999999999</v>
+        <v>149.09999999999999</v>
       </c>
       <c r="B300" s="0">
-        <v>1.5002000000000002</v>
+        <v>1.5014000000000001</v>
       </c>
       <c r="C300" s="0">
-        <v>14.69899005868966</v>
+        <v>14.650515687521038</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>149.47999999999999</v>
+        <v>149.59999999999999</v>
       </c>
       <c r="B301" s="0">
-        <v>1.4952000000000001</v>
+        <v>1.4964</v>
       </c>
       <c r="C301" s="0">
-        <v>14.477729628298798</v>
+        <v>14.424738042705957</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>149.97999999999999</v>
+        <v>150.09999999999999</v>
       </c>
       <c r="B302" s="0">
-        <v>1.4902000000000002</v>
+        <v>1.4914000000000001</v>
       </c>
       <c r="C302" s="0">
-        <v>14.259996566455062</v>
+        <v>14.201929995138556</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>150.47999999999999</v>
+        <v>150.59999999999999</v>
       </c>
       <c r="B303" s="0">
-        <v>1.4852000000000003</v>
+        <v>1.4864000000000002</v>
       </c>
       <c r="C303" s="0">
-        <v>14.027608575877345</v>
+        <v>13.976117946224898</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>150.97999999999999</v>
+        <v>151.09999999999999</v>
       </c>
       <c r="B304" s="0">
-        <v>1.4802000000000002</v>
+        <v>1.4814000000000001</v>
       </c>
       <c r="C304" s="0">
-        <v>13.8024307102647</v>
+        <v>13.752590404248162</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>151.47999999999999</v>
+        <v>151.59999999999999</v>
       </c>
       <c r="B305" s="0">
-        <v>1.4752000000000001</v>
+        <v>1.4763999999999999</v>
       </c>
       <c r="C305" s="0">
-        <v>13.569354413702237</v>
+        <v>13.514379417374073</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>151.97999999999999</v>
+        <v>152.09999999999999</v>
       </c>
       <c r="B306" s="0">
-        <v>1.4702000000000002</v>
+        <v>1.4714</v>
       </c>
       <c r="C306" s="0">
-        <v>13.353661117099849</v>
+        <v>13.299741595303093</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>152.47999999999999</v>
+        <v>152.59999999999999</v>
       </c>
       <c r="B307" s="0">
-        <v>1.4652000000000003</v>
+        <v>1.4664000000000001</v>
       </c>
       <c r="C307" s="0">
-        <v>13.125518904459614</v>
+        <v>13.064646423095621</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>152.97999999999999</v>
+        <v>153.09999999999999</v>
       </c>
       <c r="B308" s="0">
-        <v>1.4602000000000002</v>
+        <v>1.4614</v>
       </c>
       <c r="C308" s="0">
-        <v>12.89048852157943</v>
+        <v>12.832819640252795</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>153.47999999999999</v>
+        <v>153.59999999999999</v>
       </c>
       <c r="B309" s="0">
-        <v>1.4552</v>
+        <v>1.4563999999999999</v>
       </c>
       <c r="C309" s="0">
-        <v>12.652203297800135</v>
+        <v>12.603709659324636</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>153.97999999999999</v>
+        <v>154.09999999999999</v>
       </c>
       <c r="B310" s="0">
-        <v>1.4502000000000002</v>
+        <v>1.4514</v>
       </c>
       <c r="C310" s="0">
-        <v>12.429543977322629</v>
+        <v>12.373776597733817</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>154.47999999999999</v>
+        <v>154.59999999999999</v>
       </c>
       <c r="B311" s="0">
-        <v>1.4452000000000003</v>
+        <v>1.4464000000000001</v>
       </c>
       <c r="C311" s="0">
-        <v>12.187521379805965</v>
+        <v>12.135167719980554</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>154.97999999999999</v>
+        <v>155.09999999999999</v>
       </c>
       <c r="B312" s="0">
-        <v>1.4402000000000001</v>
+        <v>1.4414</v>
       </c>
       <c r="C312" s="0">
-        <v>11.960298239310095</v>
+        <v>11.902435211846978</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>155.47999999999999</v>
+        <v>155.59999999999999</v>
       </c>
       <c r="B313" s="0">
-        <v>1.4352</v>
+        <v>1.4363999999999999</v>
       </c>
       <c r="C313" s="0">
-        <v>11.724372419850681</v>
+        <v>11.666737967914441</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>155.97999999999999</v>
+        <v>156.09999999999999</v>
       </c>
       <c r="B314" s="0">
-        <v>1.4302000000000001</v>
+        <v>1.4314</v>
       </c>
       <c r="C314" s="0">
-        <v>11.483303549327262</v>
+        <v>11.424058935716687</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>156.47999999999999</v>
+        <v>156.59999999999999</v>
       </c>
       <c r="B315" s="0">
-        <v>1.4252000000000002</v>
+        <v>1.4264000000000001</v>
       </c>
       <c r="C315" s="0">
-        <v>11.247310815666545</v>
+        <v>11.197712501402341</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>156.97999999999999</v>
+        <v>157.09999999999999</v>
       </c>
       <c r="B316" s="0">
-        <v>1.4202000000000004</v>
+        <v>1.4214000000000002</v>
       </c>
       <c r="C316" s="0">
-        <v>11.009317682756414</v>
+        <v>10.953204816573804</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>157.47999999999999</v>
+        <v>157.59999999999999</v>
       </c>
       <c r="B317" s="0">
-        <v>1.4152000000000002</v>
+        <v>1.4164000000000001</v>
       </c>
       <c r="C317" s="0">
-        <v>10.776048229328859</v>
+        <v>10.720766239108487</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>157.97999999999999</v>
+        <v>158.09999999999999</v>
       </c>
       <c r="B318" s="0">
-        <v>1.4102000000000001</v>
+        <v>1.4114</v>
       </c>
       <c r="C318" s="0">
-        <v>10.534207210444363</v>
+        <v>10.476172170075916</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>158.47999999999999</v>
+        <v>158.59999999999999</v>
       </c>
       <c r="B319" s="0">
-        <v>1.4052000000000002</v>
+        <v>1.4064000000000001</v>
       </c>
       <c r="C319" s="0">
-        <v>10.293580388868923</v>
+        <v>10.236666168056544</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>158.97999999999999</v>
+        <v>159.09999999999999</v>
       </c>
       <c r="B320" s="0">
-        <v>1.4002000000000003</v>
+        <v>1.4014000000000002</v>
       </c>
       <c r="C320" s="0">
-        <v>10.050510240747393</v>
+        <v>9.9948913653191749</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>159.47999999999999</v>
+        <v>159.59999999999999</v>
       </c>
       <c r="B321" s="0">
-        <v>1.3952000000000002</v>
+        <v>1.3964000000000001</v>
       </c>
       <c r="C321" s="0">
-        <v>9.7966879067353361</v>
+        <v>9.7394229834336805</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>159.97999999999999</v>
+        <v>160.09999999999999</v>
       </c>
       <c r="B322" s="0">
-        <v>1.3902000000000001</v>
+        <v>1.3914</v>
       </c>
       <c r="C322" s="0">
-        <v>9.5506507765401043</v>
+        <v>9.4964780673871605</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>160.47999999999999</v>
+        <v>160.59999999999999</v>
       </c>
       <c r="B323" s="0">
-        <v>1.3852000000000002</v>
+        <v>1.3864000000000001</v>
       </c>
       <c r="C323" s="0">
-        <v>9.3150272687347755</v>
+        <v>9.2497973149844821</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>160.97999999999999</v>
+        <v>161.09999999999999</v>
       </c>
       <c r="B324" s="0">
-        <v>1.3802000000000003</v>
+        <v>1.3814000000000002</v>
       </c>
       <c r="C324" s="0">
-        <v>9.0538949974048748</v>
+        <v>8.9907737182603515</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>161.47999999999999</v>
+        <v>161.59999999999999</v>
       </c>
       <c r="B325" s="0">
-        <v>1.3752000000000002</v>
+        <v>1.3764000000000001</v>
       </c>
       <c r="C325" s="0">
-        <v>8.8106415139537617</v>
+        <v>8.7577484013312912</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>161.97999999999999</v>
+        <v>162.09999999999999</v>
       </c>
       <c r="B326" s="0">
-        <v>1.3702000000000001</v>
+        <v>1.3714</v>
       </c>
       <c r="C326" s="0">
-        <v>8.5619605541581816</v>
+        <v>8.5076145245129222</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>162.47999999999999</v>
+        <v>162.59999999999999</v>
       </c>
       <c r="B327" s="0">
-        <v>1.3652000000000002</v>
+        <v>1.3664000000000001</v>
       </c>
       <c r="C327" s="0">
-        <v>8.3142626262626251</v>
+        <v>8.2491372798324676</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>162.97999999999999</v>
+        <v>163.09999999999999</v>
       </c>
       <c r="B328" s="0">
-        <v>1.3602000000000003</v>
+        <v>1.3614000000000002</v>
       </c>
       <c r="C328" s="0">
-        <v>8.051274643669899</v>
+        <v>7.9867753636737611</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>163.47999999999999</v>
+        <v>163.59999999999999</v>
       </c>
       <c r="B329" s="0">
-        <v>1.3552000000000002</v>
+        <v>1.3564000000000001</v>
       </c>
       <c r="C329" s="0">
-        <v>7.8026716173593638</v>
+        <v>7.74043678246887</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>163.97999999999999</v>
+        <v>164.09999999999999</v>
       </c>
       <c r="B330" s="0">
-        <v>1.3502000000000001</v>
+        <v>1.3513999999999999</v>
       </c>
       <c r="C330" s="0">
-        <v>7.5462284505130324</v>
+        <v>7.4811888111888107</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>164.47999999999999</v>
+        <v>164.59999999999999</v>
       </c>
       <c r="B331" s="0">
-        <v>1.3452000000000002</v>
+        <v>1.3464</v>
       </c>
       <c r="C331" s="0">
-        <v>7.2839221463648327</v>
+        <v>7.2198919262555643</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>164.97999999999999</v>
+        <v>165.09999999999999</v>
       </c>
       <c r="B332" s="0">
-        <v>1.3402000000000003</v>
+        <v>1.3414000000000001</v>
       </c>
       <c r="C332" s="0">
-        <v>7.0228630175270483</v>
+        <v>6.9619131670468573</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>165.47999999999999</v>
+        <v>165.59999999999999</v>
       </c>
       <c r="B333" s="0">
-        <v>1.3352000000000002</v>
+        <v>1.3364</v>
       </c>
       <c r="C333" s="0">
-        <v>6.7646350461133062</v>
+        <v>6.7071317452600896</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>165.97999999999999</v>
+        <v>166.09999999999999</v>
       </c>
       <c r="B334" s="0">
-        <v>1.3302</v>
+        <v>1.3313999999999999</v>
       </c>
       <c r="C334" s="0">
-        <v>6.4963002355571513</v>
+        <v>6.4331565760442766</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>166.47999999999999</v>
+        <v>166.59999999999999</v>
       </c>
       <c r="B335" s="0">
-        <v>1.3252000000000002</v>
+        <v>1.3264</v>
       </c>
       <c r="C335" s="0">
-        <v>6.2362175909290531</v>
+        <v>6.1696151976365883</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>166.97999999999999</v>
+        <v>167.09999999999999</v>
       </c>
       <c r="B336" s="0">
-        <v>1.3202000000000003</v>
+        <v>1.3214000000000001</v>
       </c>
       <c r="C336" s="0">
-        <v>5.9766090150517028</v>
+        <v>5.9057204293033179</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>167.47999999999999</v>
+        <v>167.59999999999999</v>
       </c>
       <c r="B337" s="0">
-        <v>1.3152000000000001</v>
+        <v>1.3164</v>
       </c>
       <c r="C337" s="0">
-        <v>5.7009304108276435</v>
+        <v>5.6371444598182574</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>167.97999999999999</v>
+        <v>168.09999999999999</v>
       </c>
       <c r="B338" s="0">
-        <v>1.3102</v>
+        <v>1.3113999999999999</v>
       </c>
       <c r="C338" s="0">
-        <v>5.4297095859783591</v>
+        <v>5.3627003477805628</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>168.47999999999999</v>
+        <v>168.59999999999999</v>
       </c>
       <c r="B339" s="0">
-        <v>1.3052000000000001</v>
+        <v>1.3064</v>
       </c>
       <c r="C339" s="0">
-        <v>5.1592929292929286</v>
+        <v>5.093279608092443</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>168.97999999999999</v>
+        <v>169.09999999999999</v>
       </c>
       <c r="B340" s="0">
-        <v>1.3002000000000002</v>
+        <v>1.3014000000000001</v>
       </c>
       <c r="C340" s="0">
-        <v>4.8869616321315918</v>
+        <v>4.8180374705508404</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>169.47999999999999</v>
+        <v>169.59999999999999</v>
       </c>
       <c r="B341" s="0">
-        <v>1.2952000000000004</v>
+        <v>1.2964000000000002</v>
       </c>
       <c r="C341" s="0">
-        <v>4.616803289815147</v>
+        <v>4.5517886391683176</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>169.97999999999999</v>
+        <v>170.09999999999999</v>
       </c>
       <c r="B342" s="0">
-        <v>1.2902000000000002</v>
+        <v>1.2914000000000001</v>
       </c>
       <c r="C342" s="0">
-        <v>4.3376532918113941</v>
+        <v>4.2700115926853899</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>170.47999999999999</v>
+        <v>170.59999999999999</v>
       </c>
       <c r="B343" s="0">
-        <v>1.2852000000000001</v>
+        <v>1.2864</v>
       </c>
       <c r="C343" s="0">
-        <v>4.0625297241186562</v>
+        <v>3.994747765603381</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>170.97999999999999</v>
+        <v>171.09999999999999</v>
       </c>
       <c r="B344" s="0">
-        <v>1.2802000000000002</v>
+        <v>1.2814000000000001</v>
       </c>
       <c r="C344" s="0">
-        <v>3.7734563021519536</v>
+        <v>3.7075225309449911</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>171.47999999999999</v>
+        <v>171.59999999999999</v>
       </c>
       <c r="B345" s="0">
-        <v>1.2752000000000003</v>
+        <v>1.2764000000000002</v>
       </c>
       <c r="C345" s="0">
-        <v>3.5023273046672254</v>
+        <v>3.4390729591264355</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>171.97999999999999</v>
+        <v>172.09999999999999</v>
       </c>
       <c r="B346" s="0">
-        <v>1.2702000000000002</v>
+        <v>1.2714000000000001</v>
       </c>
       <c r="C346" s="0">
-        <v>3.225399928135106</v>
+        <v>3.1555682285628817</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>172.47999999999999</v>
+        <v>172.59999999999999</v>
       </c>
       <c r="B347" s="0">
-        <v>1.2652000000000001</v>
+        <v>1.2664</v>
       </c>
       <c r="C347" s="0">
-        <v>2.9405917674771422</v>
+        <v>2.87190194831906</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>172.97999999999999</v>
+        <v>173.09999999999999</v>
       </c>
       <c r="B348" s="0">
-        <v>1.2602000000000002</v>
+        <v>1.2614000000000001</v>
       </c>
       <c r="C348" s="0">
-        <v>2.6538120333772506</v>
+        <v>2.5838715829624919</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>173.47999999999999</v>
+        <v>173.59999999999999</v>
       </c>
       <c r="B349" s="0">
-        <v>1.2552000000000003</v>
+        <v>1.2564000000000002</v>
       </c>
       <c r="C349" s="0">
-        <v>2.3666800814468796</v>
+        <v>2.2970950974159532</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>173.97999999999999</v>
+        <v>174.09999999999999</v>
       </c>
       <c r="B350" s="0">
-        <v>1.2502000000000002</v>
+        <v>1.2514000000000001</v>
       </c>
       <c r="C350" s="0">
-        <v>2.069436898630574</v>
+        <v>2.0030178377771968</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>174.47999999999999</v>
+        <v>174.59999999999999</v>
       </c>
       <c r="B351" s="0">
-        <v>1.2452000000000001</v>
+        <v>1.2464</v>
       </c>
       <c r="C351" s="0">
-        <v>1.78785084042001</v>
+        <v>1.7160001495830373</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>174.97999999999999</v>
+        <v>175.09999999999999</v>
       </c>
       <c r="B352" s="0">
-        <v>1.2402000000000002</v>
+        <v>1.2414000000000001</v>
       </c>
       <c r="C352" s="0">
-        <v>1.4938882101648896</v>
+        <v>1.4177506450768484</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>175.47999999999999</v>
+        <v>175.59999999999999</v>
       </c>
       <c r="B353" s="0">
-        <v>1.2352000000000003</v>
+        <v>1.2364000000000002</v>
       </c>
       <c r="C353" s="0">
-        <v>1.1986164410907492</v>
+        <v>1.1267282450170151</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>175.97999999999999</v>
+        <v>176.09999999999999</v>
       </c>
       <c r="B354" s="0">
-        <v>1.2302000000000002</v>
+        <v>1.2314000000000001</v>
       </c>
       <c r="C354" s="0">
-        <v>0.91605333972132363</v>
+        <v>0.84467671366067099</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>176.47999999999999</v>
+        <v>176.59999999999999</v>
       </c>
       <c r="B355" s="0">
-        <v>1.2252000000000001</v>
+        <v>1.2263999999999999</v>
       </c>
       <c r="C355" s="0">
-        <v>0.62426893440332165</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="0">
-        <v>176.97999999999999</v>
-      </c>
-      <c r="B356" s="0">
-        <v>1.2202000000000002</v>
-      </c>
-      <c r="C356" s="0">
-        <v>0.34230718249690573</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="0">
-        <v>177.47999999999999</v>
-      </c>
-      <c r="B357" s="0">
-        <v>1.2152000000000003</v>
-      </c>
-      <c r="C357" s="0">
-        <v>0.084089388871997559</v>
+        <v>0.56355753871796666</v>
       </c>
     </row>
   </sheetData>
